--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Profile" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Project ID</t>
   </si>
@@ -149,22 +149,79 @@
     <t>Req No</t>
   </si>
   <si>
-    <t xml:space="preserve">Open EMR Application </t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>Open EMR</t>
-  </si>
-  <si>
-    <t>Medical Record Management Portal</t>
-  </si>
-  <si>
     <t>Requirement Matrix</t>
   </si>
   <si>
     <t>URL:</t>
+  </si>
+  <si>
+    <t>Orange HRM</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Employee Management Portal</t>
+  </si>
+  <si>
+    <t>Orange HRM Portal</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>QA Engineer</t>
+  </si>
+  <si>
+    <t>QA Trainer</t>
+  </si>
+  <si>
+    <t>Balaji Dinakaran</t>
+  </si>
+  <si>
+    <t>Smita</t>
+  </si>
+  <si>
+    <t>SC_OH_1</t>
+  </si>
+  <si>
+    <t>OH_Req 3</t>
+  </si>
+  <si>
+    <t>Landing Page</t>
+  </si>
+  <si>
+    <t>SC_OH_2</t>
+  </si>
+  <si>
+    <t>Login Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Scenaro ID&gt; </t>
+  </si>
+  <si>
+    <t>&lt;Sequence Number&gt;</t>
+  </si>
+  <si>
+    <t>&lt;this specifies the state of the system and environment must be before the specific test case can be run&gt;</t>
+  </si>
+  <si>
+    <t>&lt;This specfies the detailed test steps on how to test.. &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Test data used to run by test steps&gt; </t>
+  </si>
+  <si>
+    <t>&lt;decribe the expected result after analysing the requirement&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Mention actual result after execution of the test steps&gt;</t>
+  </si>
+  <si>
+    <t>&lt;status of the test case whether passed or failed or skipped or blocked&gt;</t>
+  </si>
+  <si>
+    <t>&lt;description about the test case&gt;</t>
   </si>
 </sst>
 </file>
@@ -458,7 +515,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -581,6 +638,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -623,7 +683,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="17.25" customHeight="1"/>
@@ -1055,7 +1115,7 @@
   <sheetData>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="22.5">
       <c r="B4" s="34" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -1068,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="36"/>
     </row>
@@ -1086,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="38"/>
     </row>
@@ -1107,8 +1167,12 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="13.5">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="2:4" ht="17.25" customHeight="1">
@@ -1123,8 +1187,12 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="13.5">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="2:4" ht="17.25" customHeight="1">
@@ -1139,7 +1207,9 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="13.5">
-      <c r="B17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="17"/>
       <c r="D17" s="11"/>
     </row>
@@ -1168,7 +1238,7 @@
   <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
@@ -1181,12 +1251,12 @@
   <sheetData>
     <row r="2" spans="1:4" ht="17.649999999999999">
       <c r="C2" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>31</v>
@@ -1211,16 +1281,30 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="15"/>
@@ -1297,14 +1381,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L388"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.265625" style="1" customWidth="1"/>
@@ -1352,91 +1436,116 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="21" customFormat="1" ht="25.5">
-      <c r="A2" s="33"/>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="2" spans="1:12" s="21" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="21" customFormat="1">
       <c r="A3" s="33"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="4" spans="1:12" s="21" customFormat="1">
       <c r="A4" s="33"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="5" spans="1:12" s="21" customFormat="1">
       <c r="A5" s="33"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="6" spans="1:12" s="21" customFormat="1">
       <c r="A6" s="33"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="7" spans="1:12" s="21" customFormat="1">
       <c r="A7" s="33"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="8" spans="1:12" s="21" customFormat="1">
       <c r="A8" s="33"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="9" spans="1:12" s="21" customFormat="1">
       <c r="A9" s="33"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="10" spans="1:12" s="21" customFormat="1">
       <c r="A10" s="33"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="11" spans="1:12" s="21" customFormat="1">
       <c r="A11" s="33"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="12" spans="1:12" s="21" customFormat="1">
       <c r="A12" s="33"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="13" spans="1:12" s="21" customFormat="1">
       <c r="A13" s="33"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="14" spans="1:12" s="21" customFormat="1">
       <c r="A14" s="33"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="15" spans="1:12" s="21" customFormat="1">
       <c r="A15" s="33"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:12" s="21" customFormat="1" ht="25.5">
+    <row r="16" spans="1:12" s="21" customFormat="1">
       <c r="A16" s="33"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" s="21" customFormat="1" ht="25.5">
+    <row r="17" spans="1:6" s="21" customFormat="1">
       <c r="A17" s="33"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" s="21" customFormat="1" ht="25.5">
+    <row r="18" spans="1:6" s="21" customFormat="1">
       <c r="A18" s="33"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" s="21" customFormat="1" ht="25.5">
+    <row r="19" spans="1:6" s="21" customFormat="1">
       <c r="A19" s="33"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" s="21" customFormat="1" ht="25.5">
+    <row r="20" spans="1:6" s="21" customFormat="1">
       <c r="A20" s="33"/>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" s="21" customFormat="1" ht="25.5">
+    <row r="21" spans="1:6" s="21" customFormat="1">
       <c r="A21" s="33"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" s="21" customFormat="1" ht="25.5">
+    <row r="22" spans="1:6" s="21" customFormat="1">
       <c r="A22" s="33"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" s="21" customFormat="1" ht="25.5">
+    <row r="23" spans="1:6" s="21" customFormat="1">
       <c r="A23" s="33"/>
       <c r="F23" s="32"/>
     </row>
@@ -1808,12 +1917,12 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>"Pass,Fail,Blocked"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I58">
+      <formula1>"passed,failed,skipped,blocked"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1821,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="12.75"/>
@@ -1954,7 +2063,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2128,14 +2244,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2148,9 +2257,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2175,12 +2293,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Profile" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
   <si>
     <t>Project ID</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Test Executed Date</t>
   </si>
   <si>
-    <t>https://demo.openemr.io/b/openemr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actual Result </t>
   </si>
   <si>
@@ -222,14 +219,220 @@
   </si>
   <si>
     <t>&lt;description about the test case&gt;</t>
+  </si>
+  <si>
+    <t>SC_OH_3</t>
+  </si>
+  <si>
+    <t>SC_OH_4</t>
+  </si>
+  <si>
+    <t>SC_OH_5</t>
+  </si>
+  <si>
+    <t>SC_OH_6</t>
+  </si>
+  <si>
+    <t>SC_OH_7</t>
+  </si>
+  <si>
+    <t>SC_OH_8</t>
+  </si>
+  <si>
+    <t>SC_OH_9</t>
+  </si>
+  <si>
+    <t>SC_OH_10</t>
+  </si>
+  <si>
+    <t>SC_OH_11</t>
+  </si>
+  <si>
+    <t>SC_OH_12</t>
+  </si>
+  <si>
+    <t>OH_Req 4</t>
+  </si>
+  <si>
+    <t>TC_OH_1</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/index.php/</t>
+  </si>
+  <si>
+    <t>To verify the UI Component in the landing page</t>
+  </si>
+  <si>
+    <t>Navigate/access to the url mentioned in the RTM</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url</t>
+  </si>
+  <si>
+    <t>1. Title should be "OrangeHRM".
+2. OrangeHRM Logo should be present
+3. Textbox for entering username and password
+4. Textbox should contain username and password placeholder.
+5. Login button should be present
+6. Link for "Forgot Your Password?" should be present
+7. OrgangeHRM version should be present as "Orange HRM 4.2"
+8. Copyright detail should be present as "© 2005 - 2022 OrangeHRM, Inc. All rights reserved."
+9. Icon with link for Linkendin, Facebook, Twitter, youtube should be present.</t>
+  </si>
+  <si>
+    <t>Status Comments</t>
+  </si>
+  <si>
+    <t>TC_OH_2</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url
+2. Enter username
+3. Enter password
+4. Click Login</t>
+  </si>
+  <si>
+    <t>Data 1:
+Username: Admin
+Password: admin123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be navigated to the dashboard screen </t>
+  </si>
+  <si>
+    <t>To verify the valid login as a enrolled employee.</t>
+  </si>
+  <si>
+    <t>TC_OH_3</t>
+  </si>
+  <si>
+    <t>To verify the invalid login as a enrolled employee</t>
+  </si>
+  <si>
+    <t>Data 1:
+Username: John
+Password: admin123
+Data 2:
+Username: John
+Password: admin123</t>
+  </si>
+  <si>
+    <t>User should be displayed with error message as "Invalid Credential"</t>
+  </si>
+  <si>
+    <t>TC_OH_4</t>
+  </si>
+  <si>
+    <t>To verify empty username are not allowed to login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data 1:
+Password: admin123
+</t>
+  </si>
+  <si>
+    <t>User should be displayed with error message as "Username cannot be empty"</t>
+  </si>
+  <si>
+    <t>TC_OH_5</t>
+  </si>
+  <si>
+    <t>To verify empty password are not allowed to login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data 1:
+Username: Admin
+</t>
+  </si>
+  <si>
+    <t>User should be displayed with error message as "Password cannot be empty"</t>
+  </si>
+  <si>
+    <t>Landing Page - Forgot Your Password Link</t>
+  </si>
+  <si>
+    <t>TC_OH_6</t>
+  </si>
+  <si>
+    <t>To verify forgot your password link</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url
+2. Click on "Forgot your password?"</t>
+  </si>
+  <si>
+    <t>User should be navigated to forgor your page.</t>
+  </si>
+  <si>
+    <t>Landing Page - Orange HRM link</t>
+  </si>
+  <si>
+    <t>Landing Page - Social Media Link - Facebook, Twitter, Youtube, Linkedin</t>
+  </si>
+  <si>
+    <t>TC_OH_7</t>
+  </si>
+  <si>
+    <t>TC_OH_8</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url
+2. Click on "Facebook icon" in the bottom of page</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url
+2. Click on "Linkedin icon" in the bottom of page</t>
+  </si>
+  <si>
+    <t>To verify Linkedin link is working fine</t>
+  </si>
+  <si>
+    <t>TC_OH_9</t>
+  </si>
+  <si>
+    <t>To verify Facebook icon link is working fine</t>
+  </si>
+  <si>
+    <t>User should be navigated to Orange HRM profle of facebook in new tab.</t>
+  </si>
+  <si>
+    <t>User should be navigated to Orange HRM profile of linkedin in new tab.</t>
+  </si>
+  <si>
+    <t>TC_OH_10</t>
+  </si>
+  <si>
+    <t>TC_OH_11</t>
+  </si>
+  <si>
+    <t>To verify twitter icon link is working fine</t>
+  </si>
+  <si>
+    <t>To verify youtube icon link is working fine</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url
+2. Click on "Twitter icon" in the bottom of page</t>
+  </si>
+  <si>
+    <t>1. Navigate to the url
+2. Click on "Youtube icon" in the bottom of page</t>
+  </si>
+  <si>
+    <t>User should be navigated to youtube Orange HRM channel in new tab.</t>
+  </si>
+  <si>
+    <t>User should be navigated to Orange HRM profle of twitter in new tab.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -515,7 +718,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -615,6 +818,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,8 +845,28 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -683,7 +909,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1098,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:V18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
@@ -1114,11 +1340,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="22.5">
-      <c r="B4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="B4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C5" s="6"/>
@@ -1127,28 +1353,28 @@
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="36"/>
+      <c r="C7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="36"/>
+      <c r="C8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="38"/>
+      <c r="C9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="2:4" ht="17.25" customHeight="1">
       <c r="B10" s="9"/>
@@ -1168,12 +1394,14 @@
     </row>
     <row r="13" spans="2:4" ht="13.5">
       <c r="B13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="43">
+        <v>44607</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="17.25" customHeight="1">
       <c r="B14" s="10" t="s">
@@ -1188,10 +1416,10 @@
     </row>
     <row r="15" spans="2:4" ht="13.5">
       <c r="B15" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -1208,7 +1436,7 @@
     </row>
     <row r="17" spans="2:4" ht="13.5">
       <c r="B17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="11"/>
@@ -1237,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
@@ -1251,15 +1479,15 @@
   <sheetData>
     <row r="2" spans="1:4" ht="17.649999999999999">
       <c r="C2" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="13.15">
@@ -1268,7 +1496,7 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -1281,88 +1509,122 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" ht="13.9">
       <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="C15" s="15"/>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" ht="13.9">
       <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="15"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.9">
       <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="15"/>
       <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="13.9">
       <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="31"/>
     </row>
@@ -1379,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L388"/>
+  <dimension ref="A1:M388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -1393,12 +1655,13 @@
     <col min="4" max="4" width="38.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.73046875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.59765625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="26.1328125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="36" style="1"/>
+    <col min="7" max="7" width="57.9296875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="26.1328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36" style="49"/>
+    <col min="12" max="16384" width="36" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1">
+    <row r="1" spans="1:13" s="20" customFormat="1">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
@@ -1421,506 +1684,1466 @@
         <v>19</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="21" customFormat="1" ht="75.75" customHeight="1">
+    <row r="2" spans="1:13" s="21" customFormat="1" ht="51.4" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="E2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:13" s="21" customFormat="1" ht="113.65" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="48">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="21" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="48">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="21" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="48">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="21" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="48">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="21" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="48">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="21" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="21" customFormat="1">
-      <c r="A3" s="33"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" s="21" customFormat="1">
-      <c r="A4" s="33"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:12" s="21" customFormat="1">
-      <c r="A5" s="33"/>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="1:12" s="21" customFormat="1">
-      <c r="A6" s="33"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:12" s="21" customFormat="1">
-      <c r="A7" s="33"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:12" s="21" customFormat="1">
-      <c r="A8" s="33"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" s="21" customFormat="1">
-      <c r="A9" s="33"/>
+      <c r="B8" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:13" s="21" customFormat="1">
+      <c r="A9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>101</v>
+      </c>
       <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:12" s="21" customFormat="1">
-      <c r="A10" s="33"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="1:13" s="21" customFormat="1" ht="38.25">
+      <c r="A10" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>104</v>
+      </c>
       <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:12" s="21" customFormat="1">
-      <c r="A11" s="33"/>
+      <c r="G10" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:13" s="21" customFormat="1" ht="38.25">
+      <c r="A11" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:12" s="21" customFormat="1">
-      <c r="A12" s="33"/>
+      <c r="G11" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" s="21" customFormat="1" ht="38.25">
+      <c r="A12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>114</v>
+      </c>
       <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:12" s="21" customFormat="1">
-      <c r="A13" s="33"/>
+      <c r="G12" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" s="21" customFormat="1" ht="38.25">
+      <c r="A13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>115</v>
+      </c>
       <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:12" s="21" customFormat="1">
+      <c r="G13" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="1:13" s="21" customFormat="1">
       <c r="A14" s="33"/>
       <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" s="21" customFormat="1">
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1">
       <c r="A15" s="33"/>
       <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" s="21" customFormat="1">
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:13" s="21" customFormat="1">
       <c r="A16" s="33"/>
       <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6" s="21" customFormat="1">
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="1:11" s="21" customFormat="1">
       <c r="A17" s="33"/>
       <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6" s="21" customFormat="1">
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="1:11" s="21" customFormat="1">
       <c r="A18" s="33"/>
       <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" s="21" customFormat="1">
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="1:11" s="21" customFormat="1">
       <c r="A19" s="33"/>
       <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="1:6" s="21" customFormat="1">
-      <c r="A20" s="33"/>
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="1:11" s="21" customFormat="1">
       <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6" s="21" customFormat="1">
-      <c r="A21" s="33"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" s="21" customFormat="1">
       <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:6" s="21" customFormat="1">
-      <c r="A22" s="33"/>
+      <c r="K21" s="48"/>
+    </row>
+    <row r="22" spans="1:11" s="21" customFormat="1">
       <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" s="21" customFormat="1">
-      <c r="A23" s="33"/>
+      <c r="K22" s="48"/>
+    </row>
+    <row r="23" spans="1:11" s="21" customFormat="1">
       <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:6" s="21" customFormat="1"/>
-    <row r="25" spans="1:6" s="21" customFormat="1"/>
-    <row r="26" spans="1:6" s="21" customFormat="1"/>
-    <row r="27" spans="1:6" s="21" customFormat="1"/>
-    <row r="28" spans="1:6" s="21" customFormat="1"/>
-    <row r="29" spans="1:6" s="21" customFormat="1"/>
-    <row r="30" spans="1:6" s="21" customFormat="1"/>
-    <row r="31" spans="1:6" s="21" customFormat="1"/>
-    <row r="32" spans="1:6" s="21" customFormat="1"/>
-    <row r="33" s="21" customFormat="1"/>
-    <row r="34" s="21" customFormat="1"/>
-    <row r="35" s="21" customFormat="1"/>
-    <row r="36" s="21" customFormat="1"/>
-    <row r="37" s="21" customFormat="1"/>
-    <row r="38" s="21" customFormat="1"/>
-    <row r="39" s="21" customFormat="1"/>
-    <row r="40" s="21" customFormat="1"/>
-    <row r="41" s="21" customFormat="1"/>
-    <row r="42" s="21" customFormat="1"/>
-    <row r="43" s="21" customFormat="1"/>
-    <row r="44" s="21" customFormat="1"/>
-    <row r="45" s="21" customFormat="1"/>
-    <row r="46" s="21" customFormat="1"/>
-    <row r="47" s="21" customFormat="1"/>
-    <row r="48" s="21" customFormat="1"/>
-    <row r="49" s="21" customFormat="1"/>
-    <row r="50" s="21" customFormat="1"/>
-    <row r="51" s="21" customFormat="1"/>
-    <row r="52" s="21" customFormat="1"/>
-    <row r="53" s="21" customFormat="1"/>
-    <row r="54" s="21" customFormat="1"/>
-    <row r="55" s="21" customFormat="1"/>
-    <row r="56" s="21" customFormat="1"/>
-    <row r="57" s="21" customFormat="1"/>
-    <row r="58" s="21" customFormat="1"/>
-    <row r="59" s="21" customFormat="1"/>
-    <row r="60" s="21" customFormat="1"/>
-    <row r="61" s="21" customFormat="1"/>
-    <row r="62" s="21" customFormat="1"/>
-    <row r="63" s="21" customFormat="1"/>
-    <row r="64" s="21" customFormat="1"/>
-    <row r="65" s="21" customFormat="1"/>
-    <row r="66" s="21" customFormat="1"/>
-    <row r="67" s="21" customFormat="1"/>
-    <row r="68" s="21" customFormat="1"/>
-    <row r="69" s="21" customFormat="1"/>
-    <row r="70" s="21" customFormat="1"/>
-    <row r="71" s="21" customFormat="1"/>
-    <row r="72" s="21" customFormat="1"/>
-    <row r="73" s="21" customFormat="1"/>
-    <row r="74" s="21" customFormat="1"/>
-    <row r="75" s="21" customFormat="1"/>
-    <row r="76" s="21" customFormat="1"/>
-    <row r="77" s="21" customFormat="1"/>
-    <row r="78" s="21" customFormat="1"/>
-    <row r="79" s="21" customFormat="1"/>
-    <row r="80" s="21" customFormat="1"/>
-    <row r="81" s="21" customFormat="1"/>
-    <row r="82" s="21" customFormat="1"/>
-    <row r="83" s="21" customFormat="1"/>
-    <row r="84" s="21" customFormat="1"/>
-    <row r="85" s="21" customFormat="1"/>
-    <row r="86" s="21" customFormat="1"/>
-    <row r="87" s="21" customFormat="1"/>
-    <row r="88" s="21" customFormat="1"/>
-    <row r="89" s="21" customFormat="1"/>
-    <row r="90" s="21" customFormat="1"/>
-    <row r="91" s="21" customFormat="1"/>
-    <row r="92" s="21" customFormat="1"/>
-    <row r="93" s="21" customFormat="1"/>
-    <row r="94" s="21" customFormat="1"/>
-    <row r="95" s="21" customFormat="1"/>
-    <row r="96" s="21" customFormat="1"/>
-    <row r="97" s="21" customFormat="1"/>
-    <row r="98" s="21" customFormat="1"/>
-    <row r="99" s="21" customFormat="1"/>
-    <row r="100" s="21" customFormat="1"/>
-    <row r="101" s="21" customFormat="1"/>
-    <row r="102" s="21" customFormat="1"/>
-    <row r="103" s="21" customFormat="1"/>
-    <row r="104" s="21" customFormat="1"/>
-    <row r="105" s="21" customFormat="1"/>
-    <row r="106" s="21" customFormat="1"/>
-    <row r="107" s="21" customFormat="1"/>
-    <row r="108" s="21" customFormat="1"/>
-    <row r="109" s="21" customFormat="1"/>
-    <row r="110" s="21" customFormat="1"/>
-    <row r="111" s="21" customFormat="1"/>
-    <row r="112" s="21" customFormat="1"/>
-    <row r="113" s="21" customFormat="1"/>
-    <row r="114" s="21" customFormat="1"/>
-    <row r="115" s="21" customFormat="1"/>
-    <row r="116" s="21" customFormat="1"/>
-    <row r="117" s="21" customFormat="1"/>
-    <row r="118" s="21" customFormat="1"/>
-    <row r="119" s="21" customFormat="1"/>
-    <row r="120" s="21" customFormat="1"/>
-    <row r="121" s="21" customFormat="1"/>
-    <row r="122" s="21" customFormat="1"/>
-    <row r="123" s="21" customFormat="1"/>
-    <row r="124" s="21" customFormat="1"/>
-    <row r="125" s="21" customFormat="1"/>
-    <row r="126" s="21" customFormat="1"/>
-    <row r="127" s="21" customFormat="1"/>
-    <row r="128" s="21" customFormat="1"/>
-    <row r="129" s="21" customFormat="1"/>
-    <row r="130" s="21" customFormat="1"/>
-    <row r="131" s="21" customFormat="1"/>
-    <row r="132" s="21" customFormat="1"/>
-    <row r="133" s="21" customFormat="1"/>
-    <row r="134" s="21" customFormat="1"/>
-    <row r="135" s="21" customFormat="1"/>
-    <row r="136" s="21" customFormat="1"/>
-    <row r="137" s="21" customFormat="1"/>
-    <row r="138" s="21" customFormat="1"/>
-    <row r="139" s="21" customFormat="1"/>
-    <row r="140" s="21" customFormat="1"/>
-    <row r="141" s="21" customFormat="1"/>
-    <row r="142" s="21" customFormat="1"/>
-    <row r="143" s="21" customFormat="1"/>
-    <row r="144" s="21" customFormat="1"/>
-    <row r="145" s="21" customFormat="1"/>
-    <row r="146" s="21" customFormat="1"/>
-    <row r="147" s="21" customFormat="1"/>
-    <row r="148" s="21" customFormat="1"/>
-    <row r="149" s="21" customFormat="1"/>
-    <row r="150" s="21" customFormat="1"/>
-    <row r="151" s="21" customFormat="1"/>
-    <row r="152" s="21" customFormat="1"/>
-    <row r="153" s="21" customFormat="1"/>
-    <row r="154" s="21" customFormat="1"/>
-    <row r="155" s="21" customFormat="1"/>
-    <row r="156" s="21" customFormat="1"/>
-    <row r="157" s="21" customFormat="1"/>
-    <row r="158" s="21" customFormat="1"/>
-    <row r="159" s="21" customFormat="1"/>
-    <row r="160" s="21" customFormat="1"/>
-    <row r="161" s="21" customFormat="1"/>
-    <row r="162" s="21" customFormat="1"/>
-    <row r="163" s="21" customFormat="1"/>
-    <row r="164" s="21" customFormat="1"/>
-    <row r="165" s="21" customFormat="1"/>
-    <row r="166" s="21" customFormat="1"/>
-    <row r="167" s="21" customFormat="1"/>
-    <row r="168" s="21" customFormat="1"/>
-    <row r="169" s="21" customFormat="1"/>
-    <row r="170" s="21" customFormat="1"/>
-    <row r="171" s="21" customFormat="1"/>
-    <row r="172" s="21" customFormat="1"/>
-    <row r="173" s="21" customFormat="1"/>
-    <row r="174" s="21" customFormat="1"/>
-    <row r="175" s="21" customFormat="1"/>
-    <row r="176" s="21" customFormat="1"/>
-    <row r="177" s="21" customFormat="1"/>
-    <row r="178" s="21" customFormat="1"/>
-    <row r="179" s="21" customFormat="1"/>
-    <row r="180" s="21" customFormat="1"/>
-    <row r="181" s="21" customFormat="1"/>
-    <row r="182" s="21" customFormat="1"/>
-    <row r="183" s="21" customFormat="1"/>
-    <row r="184" s="21" customFormat="1"/>
-    <row r="185" s="21" customFormat="1"/>
-    <row r="186" s="21" customFormat="1"/>
-    <row r="187" s="21" customFormat="1"/>
-    <row r="188" s="21" customFormat="1"/>
-    <row r="189" s="21" customFormat="1"/>
-    <row r="190" s="21" customFormat="1"/>
-    <row r="191" s="21" customFormat="1"/>
-    <row r="192" s="21" customFormat="1"/>
-    <row r="193" s="21" customFormat="1"/>
-    <row r="194" s="21" customFormat="1"/>
-    <row r="195" s="21" customFormat="1"/>
-    <row r="196" s="21" customFormat="1"/>
-    <row r="197" s="21" customFormat="1"/>
-    <row r="198" s="21" customFormat="1"/>
-    <row r="199" s="21" customFormat="1"/>
-    <row r="200" s="21" customFormat="1"/>
-    <row r="201" s="21" customFormat="1"/>
-    <row r="202" s="21" customFormat="1"/>
-    <row r="203" s="21" customFormat="1"/>
-    <row r="204" s="21" customFormat="1"/>
-    <row r="205" s="21" customFormat="1"/>
-    <row r="206" s="21" customFormat="1"/>
-    <row r="207" s="21" customFormat="1"/>
-    <row r="208" s="21" customFormat="1"/>
-    <row r="209" s="21" customFormat="1"/>
-    <row r="210" s="21" customFormat="1"/>
-    <row r="211" s="21" customFormat="1"/>
-    <row r="212" s="21" customFormat="1"/>
-    <row r="213" s="21" customFormat="1"/>
-    <row r="214" s="21" customFormat="1"/>
-    <row r="215" s="21" customFormat="1"/>
-    <row r="216" s="21" customFormat="1"/>
-    <row r="217" s="21" customFormat="1"/>
-    <row r="218" s="21" customFormat="1"/>
-    <row r="219" s="21" customFormat="1"/>
-    <row r="220" s="21" customFormat="1"/>
-    <row r="221" s="21" customFormat="1"/>
-    <row r="222" s="21" customFormat="1"/>
-    <row r="223" s="21" customFormat="1"/>
-    <row r="224" s="21" customFormat="1"/>
-    <row r="225" s="21" customFormat="1"/>
-    <row r="226" s="21" customFormat="1"/>
-    <row r="227" s="21" customFormat="1"/>
-    <row r="228" s="21" customFormat="1"/>
-    <row r="229" s="21" customFormat="1"/>
-    <row r="230" s="21" customFormat="1"/>
-    <row r="231" s="21" customFormat="1"/>
-    <row r="232" s="21" customFormat="1"/>
-    <row r="233" s="21" customFormat="1"/>
-    <row r="234" s="21" customFormat="1"/>
-    <row r="235" s="21" customFormat="1"/>
-    <row r="236" s="21" customFormat="1"/>
-    <row r="237" s="21" customFormat="1"/>
-    <row r="238" s="21" customFormat="1"/>
-    <row r="239" s="21" customFormat="1"/>
-    <row r="240" s="21" customFormat="1"/>
-    <row r="241" s="21" customFormat="1"/>
-    <row r="242" s="21" customFormat="1"/>
-    <row r="243" s="21" customFormat="1"/>
-    <row r="244" s="21" customFormat="1"/>
-    <row r="245" s="21" customFormat="1"/>
-    <row r="246" s="21" customFormat="1"/>
-    <row r="247" s="21" customFormat="1"/>
-    <row r="248" s="21" customFormat="1"/>
-    <row r="249" s="21" customFormat="1"/>
-    <row r="250" s="21" customFormat="1"/>
-    <row r="251" s="21" customFormat="1"/>
-    <row r="252" s="21" customFormat="1"/>
-    <row r="253" s="21" customFormat="1"/>
-    <row r="254" s="21" customFormat="1"/>
-    <row r="255" s="21" customFormat="1"/>
-    <row r="256" s="21" customFormat="1"/>
-    <row r="257" s="21" customFormat="1"/>
-    <row r="258" s="21" customFormat="1"/>
-    <row r="259" s="21" customFormat="1"/>
-    <row r="260" s="21" customFormat="1"/>
-    <row r="261" s="21" customFormat="1"/>
-    <row r="262" s="21" customFormat="1"/>
-    <row r="263" s="21" customFormat="1"/>
-    <row r="264" s="21" customFormat="1"/>
-    <row r="265" s="21" customFormat="1"/>
-    <row r="266" s="21" customFormat="1"/>
-    <row r="267" s="21" customFormat="1"/>
-    <row r="268" s="21" customFormat="1"/>
-    <row r="269" s="21" customFormat="1"/>
-    <row r="270" s="21" customFormat="1"/>
-    <row r="271" s="21" customFormat="1"/>
-    <row r="272" s="21" customFormat="1"/>
-    <row r="273" s="21" customFormat="1"/>
-    <row r="274" s="21" customFormat="1"/>
-    <row r="275" s="21" customFormat="1"/>
-    <row r="276" s="21" customFormat="1"/>
-    <row r="277" s="21" customFormat="1"/>
-    <row r="278" s="21" customFormat="1"/>
-    <row r="279" s="21" customFormat="1"/>
-    <row r="280" s="21" customFormat="1"/>
-    <row r="281" s="21" customFormat="1"/>
-    <row r="282" s="21" customFormat="1"/>
-    <row r="283" s="21" customFormat="1"/>
-    <row r="284" s="21" customFormat="1"/>
-    <row r="285" s="21" customFormat="1"/>
-    <row r="286" s="21" customFormat="1"/>
-    <row r="287" s="21" customFormat="1"/>
-    <row r="288" s="21" customFormat="1"/>
-    <row r="289" s="21" customFormat="1"/>
-    <row r="290" s="21" customFormat="1"/>
-    <row r="291" s="21" customFormat="1"/>
-    <row r="292" s="21" customFormat="1"/>
-    <row r="293" s="21" customFormat="1"/>
-    <row r="294" s="21" customFormat="1"/>
-    <row r="295" s="21" customFormat="1"/>
-    <row r="296" s="21" customFormat="1"/>
-    <row r="297" s="21" customFormat="1"/>
-    <row r="298" s="21" customFormat="1"/>
-    <row r="299" s="21" customFormat="1"/>
-    <row r="300" s="21" customFormat="1"/>
-    <row r="301" s="21" customFormat="1"/>
-    <row r="302" s="21" customFormat="1"/>
-    <row r="303" s="21" customFormat="1"/>
-    <row r="304" s="21" customFormat="1"/>
-    <row r="305" s="21" customFormat="1"/>
-    <row r="306" s="21" customFormat="1"/>
-    <row r="307" s="21" customFormat="1"/>
-    <row r="308" s="21" customFormat="1"/>
-    <row r="309" s="21" customFormat="1"/>
-    <row r="310" s="21" customFormat="1"/>
-    <row r="311" s="21" customFormat="1"/>
-    <row r="312" s="21" customFormat="1"/>
-    <row r="313" s="21" customFormat="1"/>
-    <row r="314" s="21" customFormat="1"/>
-    <row r="315" s="21" customFormat="1"/>
-    <row r="316" s="21" customFormat="1"/>
-    <row r="317" s="21" customFormat="1"/>
-    <row r="318" s="21" customFormat="1"/>
-    <row r="319" s="21" customFormat="1"/>
-    <row r="320" s="21" customFormat="1"/>
-    <row r="321" s="21" customFormat="1"/>
-    <row r="322" s="21" customFormat="1"/>
-    <row r="323" s="21" customFormat="1"/>
-    <row r="324" s="21" customFormat="1"/>
-    <row r="325" s="21" customFormat="1"/>
-    <row r="326" s="21" customFormat="1"/>
-    <row r="327" s="21" customFormat="1"/>
-    <row r="328" s="21" customFormat="1"/>
-    <row r="329" s="21" customFormat="1"/>
-    <row r="330" s="21" customFormat="1"/>
-    <row r="331" s="21" customFormat="1"/>
-    <row r="332" s="21" customFormat="1"/>
-    <row r="333" s="21" customFormat="1"/>
-    <row r="334" s="21" customFormat="1"/>
-    <row r="335" s="21" customFormat="1"/>
-    <row r="336" s="21" customFormat="1"/>
-    <row r="337" s="21" customFormat="1"/>
-    <row r="338" s="21" customFormat="1"/>
-    <row r="339" s="21" customFormat="1"/>
-    <row r="340" s="21" customFormat="1"/>
-    <row r="341" s="21" customFormat="1"/>
-    <row r="342" s="21" customFormat="1"/>
-    <row r="343" s="21" customFormat="1"/>
-    <row r="344" s="21" customFormat="1"/>
-    <row r="345" s="21" customFormat="1"/>
-    <row r="346" s="21" customFormat="1"/>
-    <row r="347" s="21" customFormat="1"/>
-    <row r="348" s="21" customFormat="1"/>
-    <row r="349" s="21" customFormat="1"/>
-    <row r="350" s="21" customFormat="1"/>
-    <row r="351" s="21" customFormat="1"/>
-    <row r="352" s="21" customFormat="1"/>
-    <row r="353" s="21" customFormat="1"/>
-    <row r="354" s="21" customFormat="1"/>
-    <row r="355" s="21" customFormat="1"/>
-    <row r="356" s="21" customFormat="1"/>
-    <row r="357" s="21" customFormat="1"/>
-    <row r="358" s="21" customFormat="1"/>
-    <row r="359" s="21" customFormat="1"/>
-    <row r="360" s="21" customFormat="1"/>
-    <row r="361" s="21" customFormat="1"/>
-    <row r="362" s="21" customFormat="1"/>
-    <row r="363" s="21" customFormat="1"/>
-    <row r="364" s="21" customFormat="1"/>
-    <row r="365" s="21" customFormat="1"/>
-    <row r="366" s="21" customFormat="1"/>
-    <row r="367" s="21" customFormat="1"/>
-    <row r="368" s="21" customFormat="1"/>
-    <row r="369" s="21" customFormat="1"/>
-    <row r="370" s="21" customFormat="1"/>
-    <row r="371" s="21" customFormat="1"/>
-    <row r="372" s="21" customFormat="1"/>
-    <row r="373" s="21" customFormat="1"/>
-    <row r="374" s="21" customFormat="1"/>
-    <row r="375" s="21" customFormat="1"/>
-    <row r="376" s="21" customFormat="1"/>
-    <row r="377" s="21" customFormat="1"/>
-    <row r="378" s="21" customFormat="1"/>
-    <row r="379" s="21" customFormat="1"/>
-    <row r="380" s="21" customFormat="1"/>
-    <row r="381" s="21" customFormat="1"/>
-    <row r="382" s="21" customFormat="1"/>
-    <row r="383" s="21" customFormat="1"/>
-    <row r="384" s="21" customFormat="1"/>
-    <row r="385" s="21" customFormat="1"/>
-    <row r="386" s="21" customFormat="1"/>
-    <row r="387" s="21" customFormat="1"/>
-    <row r="388" s="21" customFormat="1"/>
+      <c r="K23" s="48"/>
+    </row>
+    <row r="24" spans="1:11" s="21" customFormat="1">
+      <c r="K24" s="48"/>
+    </row>
+    <row r="25" spans="1:11" s="21" customFormat="1">
+      <c r="K25" s="48"/>
+    </row>
+    <row r="26" spans="1:11" s="21" customFormat="1">
+      <c r="K26" s="48"/>
+    </row>
+    <row r="27" spans="1:11" s="21" customFormat="1">
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="1:11" s="21" customFormat="1">
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="1:11" s="21" customFormat="1">
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="1:11" s="21" customFormat="1">
+      <c r="K30" s="48"/>
+    </row>
+    <row r="31" spans="1:11" s="21" customFormat="1">
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" spans="1:11" s="21" customFormat="1">
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="11:11" s="21" customFormat="1">
+      <c r="K33" s="48"/>
+    </row>
+    <row r="34" spans="11:11" s="21" customFormat="1">
+      <c r="K34" s="48"/>
+    </row>
+    <row r="35" spans="11:11" s="21" customFormat="1">
+      <c r="K35" s="48"/>
+    </row>
+    <row r="36" spans="11:11" s="21" customFormat="1">
+      <c r="K36" s="48"/>
+    </row>
+    <row r="37" spans="11:11" s="21" customFormat="1">
+      <c r="K37" s="48"/>
+    </row>
+    <row r="38" spans="11:11" s="21" customFormat="1">
+      <c r="K38" s="48"/>
+    </row>
+    <row r="39" spans="11:11" s="21" customFormat="1">
+      <c r="K39" s="48"/>
+    </row>
+    <row r="40" spans="11:11" s="21" customFormat="1">
+      <c r="K40" s="48"/>
+    </row>
+    <row r="41" spans="11:11" s="21" customFormat="1">
+      <c r="K41" s="48"/>
+    </row>
+    <row r="42" spans="11:11" s="21" customFormat="1">
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="11:11" s="21" customFormat="1">
+      <c r="K43" s="48"/>
+    </row>
+    <row r="44" spans="11:11" s="21" customFormat="1">
+      <c r="K44" s="48"/>
+    </row>
+    <row r="45" spans="11:11" s="21" customFormat="1">
+      <c r="K45" s="48"/>
+    </row>
+    <row r="46" spans="11:11" s="21" customFormat="1">
+      <c r="K46" s="48"/>
+    </row>
+    <row r="47" spans="11:11" s="21" customFormat="1">
+      <c r="K47" s="48"/>
+    </row>
+    <row r="48" spans="11:11" s="21" customFormat="1">
+      <c r="K48" s="48"/>
+    </row>
+    <row r="49" spans="11:11" s="21" customFormat="1">
+      <c r="K49" s="48"/>
+    </row>
+    <row r="50" spans="11:11" s="21" customFormat="1">
+      <c r="K50" s="48"/>
+    </row>
+    <row r="51" spans="11:11" s="21" customFormat="1">
+      <c r="K51" s="48"/>
+    </row>
+    <row r="52" spans="11:11" s="21" customFormat="1">
+      <c r="K52" s="48"/>
+    </row>
+    <row r="53" spans="11:11" s="21" customFormat="1">
+      <c r="K53" s="48"/>
+    </row>
+    <row r="54" spans="11:11" s="21" customFormat="1">
+      <c r="K54" s="48"/>
+    </row>
+    <row r="55" spans="11:11" s="21" customFormat="1">
+      <c r="K55" s="48"/>
+    </row>
+    <row r="56" spans="11:11" s="21" customFormat="1">
+      <c r="K56" s="48"/>
+    </row>
+    <row r="57" spans="11:11" s="21" customFormat="1">
+      <c r="K57" s="48"/>
+    </row>
+    <row r="58" spans="11:11" s="21" customFormat="1">
+      <c r="K58" s="48"/>
+    </row>
+    <row r="59" spans="11:11" s="21" customFormat="1">
+      <c r="K59" s="48"/>
+    </row>
+    <row r="60" spans="11:11" s="21" customFormat="1">
+      <c r="K60" s="48"/>
+    </row>
+    <row r="61" spans="11:11" s="21" customFormat="1">
+      <c r="K61" s="48"/>
+    </row>
+    <row r="62" spans="11:11" s="21" customFormat="1">
+      <c r="K62" s="48"/>
+    </row>
+    <row r="63" spans="11:11" s="21" customFormat="1">
+      <c r="K63" s="48"/>
+    </row>
+    <row r="64" spans="11:11" s="21" customFormat="1">
+      <c r="K64" s="48"/>
+    </row>
+    <row r="65" spans="11:11" s="21" customFormat="1">
+      <c r="K65" s="48"/>
+    </row>
+    <row r="66" spans="11:11" s="21" customFormat="1">
+      <c r="K66" s="48"/>
+    </row>
+    <row r="67" spans="11:11" s="21" customFormat="1">
+      <c r="K67" s="48"/>
+    </row>
+    <row r="68" spans="11:11" s="21" customFormat="1">
+      <c r="K68" s="48"/>
+    </row>
+    <row r="69" spans="11:11" s="21" customFormat="1">
+      <c r="K69" s="48"/>
+    </row>
+    <row r="70" spans="11:11" s="21" customFormat="1">
+      <c r="K70" s="48"/>
+    </row>
+    <row r="71" spans="11:11" s="21" customFormat="1">
+      <c r="K71" s="48"/>
+    </row>
+    <row r="72" spans="11:11" s="21" customFormat="1">
+      <c r="K72" s="48"/>
+    </row>
+    <row r="73" spans="11:11" s="21" customFormat="1">
+      <c r="K73" s="48"/>
+    </row>
+    <row r="74" spans="11:11" s="21" customFormat="1">
+      <c r="K74" s="48"/>
+    </row>
+    <row r="75" spans="11:11" s="21" customFormat="1">
+      <c r="K75" s="48"/>
+    </row>
+    <row r="76" spans="11:11" s="21" customFormat="1">
+      <c r="K76" s="48"/>
+    </row>
+    <row r="77" spans="11:11" s="21" customFormat="1">
+      <c r="K77" s="48"/>
+    </row>
+    <row r="78" spans="11:11" s="21" customFormat="1">
+      <c r="K78" s="48"/>
+    </row>
+    <row r="79" spans="11:11" s="21" customFormat="1">
+      <c r="K79" s="48"/>
+    </row>
+    <row r="80" spans="11:11" s="21" customFormat="1">
+      <c r="K80" s="48"/>
+    </row>
+    <row r="81" spans="11:11" s="21" customFormat="1">
+      <c r="K81" s="48"/>
+    </row>
+    <row r="82" spans="11:11" s="21" customFormat="1">
+      <c r="K82" s="48"/>
+    </row>
+    <row r="83" spans="11:11" s="21" customFormat="1">
+      <c r="K83" s="48"/>
+    </row>
+    <row r="84" spans="11:11" s="21" customFormat="1">
+      <c r="K84" s="48"/>
+    </row>
+    <row r="85" spans="11:11" s="21" customFormat="1">
+      <c r="K85" s="48"/>
+    </row>
+    <row r="86" spans="11:11" s="21" customFormat="1">
+      <c r="K86" s="48"/>
+    </row>
+    <row r="87" spans="11:11" s="21" customFormat="1">
+      <c r="K87" s="48"/>
+    </row>
+    <row r="88" spans="11:11" s="21" customFormat="1">
+      <c r="K88" s="48"/>
+    </row>
+    <row r="89" spans="11:11" s="21" customFormat="1">
+      <c r="K89" s="48"/>
+    </row>
+    <row r="90" spans="11:11" s="21" customFormat="1">
+      <c r="K90" s="48"/>
+    </row>
+    <row r="91" spans="11:11" s="21" customFormat="1">
+      <c r="K91" s="48"/>
+    </row>
+    <row r="92" spans="11:11" s="21" customFormat="1">
+      <c r="K92" s="48"/>
+    </row>
+    <row r="93" spans="11:11" s="21" customFormat="1">
+      <c r="K93" s="48"/>
+    </row>
+    <row r="94" spans="11:11" s="21" customFormat="1">
+      <c r="K94" s="48"/>
+    </row>
+    <row r="95" spans="11:11" s="21" customFormat="1">
+      <c r="K95" s="48"/>
+    </row>
+    <row r="96" spans="11:11" s="21" customFormat="1">
+      <c r="K96" s="48"/>
+    </row>
+    <row r="97" spans="11:11" s="21" customFormat="1">
+      <c r="K97" s="48"/>
+    </row>
+    <row r="98" spans="11:11" s="21" customFormat="1">
+      <c r="K98" s="48"/>
+    </row>
+    <row r="99" spans="11:11" s="21" customFormat="1">
+      <c r="K99" s="48"/>
+    </row>
+    <row r="100" spans="11:11" s="21" customFormat="1">
+      <c r="K100" s="48"/>
+    </row>
+    <row r="101" spans="11:11" s="21" customFormat="1">
+      <c r="K101" s="48"/>
+    </row>
+    <row r="102" spans="11:11" s="21" customFormat="1">
+      <c r="K102" s="48"/>
+    </row>
+    <row r="103" spans="11:11" s="21" customFormat="1">
+      <c r="K103" s="48"/>
+    </row>
+    <row r="104" spans="11:11" s="21" customFormat="1">
+      <c r="K104" s="48"/>
+    </row>
+    <row r="105" spans="11:11" s="21" customFormat="1">
+      <c r="K105" s="48"/>
+    </row>
+    <row r="106" spans="11:11" s="21" customFormat="1">
+      <c r="K106" s="48"/>
+    </row>
+    <row r="107" spans="11:11" s="21" customFormat="1">
+      <c r="K107" s="48"/>
+    </row>
+    <row r="108" spans="11:11" s="21" customFormat="1">
+      <c r="K108" s="48"/>
+    </row>
+    <row r="109" spans="11:11" s="21" customFormat="1">
+      <c r="K109" s="48"/>
+    </row>
+    <row r="110" spans="11:11" s="21" customFormat="1">
+      <c r="K110" s="48"/>
+    </row>
+    <row r="111" spans="11:11" s="21" customFormat="1">
+      <c r="K111" s="48"/>
+    </row>
+    <row r="112" spans="11:11" s="21" customFormat="1">
+      <c r="K112" s="48"/>
+    </row>
+    <row r="113" spans="11:11" s="21" customFormat="1">
+      <c r="K113" s="48"/>
+    </row>
+    <row r="114" spans="11:11" s="21" customFormat="1">
+      <c r="K114" s="48"/>
+    </row>
+    <row r="115" spans="11:11" s="21" customFormat="1">
+      <c r="K115" s="48"/>
+    </row>
+    <row r="116" spans="11:11" s="21" customFormat="1">
+      <c r="K116" s="48"/>
+    </row>
+    <row r="117" spans="11:11" s="21" customFormat="1">
+      <c r="K117" s="48"/>
+    </row>
+    <row r="118" spans="11:11" s="21" customFormat="1">
+      <c r="K118" s="48"/>
+    </row>
+    <row r="119" spans="11:11" s="21" customFormat="1">
+      <c r="K119" s="48"/>
+    </row>
+    <row r="120" spans="11:11" s="21" customFormat="1">
+      <c r="K120" s="48"/>
+    </row>
+    <row r="121" spans="11:11" s="21" customFormat="1">
+      <c r="K121" s="48"/>
+    </row>
+    <row r="122" spans="11:11" s="21" customFormat="1">
+      <c r="K122" s="48"/>
+    </row>
+    <row r="123" spans="11:11" s="21" customFormat="1">
+      <c r="K123" s="48"/>
+    </row>
+    <row r="124" spans="11:11" s="21" customFormat="1">
+      <c r="K124" s="48"/>
+    </row>
+    <row r="125" spans="11:11" s="21" customFormat="1">
+      <c r="K125" s="48"/>
+    </row>
+    <row r="126" spans="11:11" s="21" customFormat="1">
+      <c r="K126" s="48"/>
+    </row>
+    <row r="127" spans="11:11" s="21" customFormat="1">
+      <c r="K127" s="48"/>
+    </row>
+    <row r="128" spans="11:11" s="21" customFormat="1">
+      <c r="K128" s="48"/>
+    </row>
+    <row r="129" spans="11:11" s="21" customFormat="1">
+      <c r="K129" s="48"/>
+    </row>
+    <row r="130" spans="11:11" s="21" customFormat="1">
+      <c r="K130" s="48"/>
+    </row>
+    <row r="131" spans="11:11" s="21" customFormat="1">
+      <c r="K131" s="48"/>
+    </row>
+    <row r="132" spans="11:11" s="21" customFormat="1">
+      <c r="K132" s="48"/>
+    </row>
+    <row r="133" spans="11:11" s="21" customFormat="1">
+      <c r="K133" s="48"/>
+    </row>
+    <row r="134" spans="11:11" s="21" customFormat="1">
+      <c r="K134" s="48"/>
+    </row>
+    <row r="135" spans="11:11" s="21" customFormat="1">
+      <c r="K135" s="48"/>
+    </row>
+    <row r="136" spans="11:11" s="21" customFormat="1">
+      <c r="K136" s="48"/>
+    </row>
+    <row r="137" spans="11:11" s="21" customFormat="1">
+      <c r="K137" s="48"/>
+    </row>
+    <row r="138" spans="11:11" s="21" customFormat="1">
+      <c r="K138" s="48"/>
+    </row>
+    <row r="139" spans="11:11" s="21" customFormat="1">
+      <c r="K139" s="48"/>
+    </row>
+    <row r="140" spans="11:11" s="21" customFormat="1">
+      <c r="K140" s="48"/>
+    </row>
+    <row r="141" spans="11:11" s="21" customFormat="1">
+      <c r="K141" s="48"/>
+    </row>
+    <row r="142" spans="11:11" s="21" customFormat="1">
+      <c r="K142" s="48"/>
+    </row>
+    <row r="143" spans="11:11" s="21" customFormat="1">
+      <c r="K143" s="48"/>
+    </row>
+    <row r="144" spans="11:11" s="21" customFormat="1">
+      <c r="K144" s="48"/>
+    </row>
+    <row r="145" spans="11:11" s="21" customFormat="1">
+      <c r="K145" s="48"/>
+    </row>
+    <row r="146" spans="11:11" s="21" customFormat="1">
+      <c r="K146" s="48"/>
+    </row>
+    <row r="147" spans="11:11" s="21" customFormat="1">
+      <c r="K147" s="48"/>
+    </row>
+    <row r="148" spans="11:11" s="21" customFormat="1">
+      <c r="K148" s="48"/>
+    </row>
+    <row r="149" spans="11:11" s="21" customFormat="1">
+      <c r="K149" s="48"/>
+    </row>
+    <row r="150" spans="11:11" s="21" customFormat="1">
+      <c r="K150" s="48"/>
+    </row>
+    <row r="151" spans="11:11" s="21" customFormat="1">
+      <c r="K151" s="48"/>
+    </row>
+    <row r="152" spans="11:11" s="21" customFormat="1">
+      <c r="K152" s="48"/>
+    </row>
+    <row r="153" spans="11:11" s="21" customFormat="1">
+      <c r="K153" s="48"/>
+    </row>
+    <row r="154" spans="11:11" s="21" customFormat="1">
+      <c r="K154" s="48"/>
+    </row>
+    <row r="155" spans="11:11" s="21" customFormat="1">
+      <c r="K155" s="48"/>
+    </row>
+    <row r="156" spans="11:11" s="21" customFormat="1">
+      <c r="K156" s="48"/>
+    </row>
+    <row r="157" spans="11:11" s="21" customFormat="1">
+      <c r="K157" s="48"/>
+    </row>
+    <row r="158" spans="11:11" s="21" customFormat="1">
+      <c r="K158" s="48"/>
+    </row>
+    <row r="159" spans="11:11" s="21" customFormat="1">
+      <c r="K159" s="48"/>
+    </row>
+    <row r="160" spans="11:11" s="21" customFormat="1">
+      <c r="K160" s="48"/>
+    </row>
+    <row r="161" spans="11:11" s="21" customFormat="1">
+      <c r="K161" s="48"/>
+    </row>
+    <row r="162" spans="11:11" s="21" customFormat="1">
+      <c r="K162" s="48"/>
+    </row>
+    <row r="163" spans="11:11" s="21" customFormat="1">
+      <c r="K163" s="48"/>
+    </row>
+    <row r="164" spans="11:11" s="21" customFormat="1">
+      <c r="K164" s="48"/>
+    </row>
+    <row r="165" spans="11:11" s="21" customFormat="1">
+      <c r="K165" s="48"/>
+    </row>
+    <row r="166" spans="11:11" s="21" customFormat="1">
+      <c r="K166" s="48"/>
+    </row>
+    <row r="167" spans="11:11" s="21" customFormat="1">
+      <c r="K167" s="48"/>
+    </row>
+    <row r="168" spans="11:11" s="21" customFormat="1">
+      <c r="K168" s="48"/>
+    </row>
+    <row r="169" spans="11:11" s="21" customFormat="1">
+      <c r="K169" s="48"/>
+    </row>
+    <row r="170" spans="11:11" s="21" customFormat="1">
+      <c r="K170" s="48"/>
+    </row>
+    <row r="171" spans="11:11" s="21" customFormat="1">
+      <c r="K171" s="48"/>
+    </row>
+    <row r="172" spans="11:11" s="21" customFormat="1">
+      <c r="K172" s="48"/>
+    </row>
+    <row r="173" spans="11:11" s="21" customFormat="1">
+      <c r="K173" s="48"/>
+    </row>
+    <row r="174" spans="11:11" s="21" customFormat="1">
+      <c r="K174" s="48"/>
+    </row>
+    <row r="175" spans="11:11" s="21" customFormat="1">
+      <c r="K175" s="48"/>
+    </row>
+    <row r="176" spans="11:11" s="21" customFormat="1">
+      <c r="K176" s="48"/>
+    </row>
+    <row r="177" spans="11:11" s="21" customFormat="1">
+      <c r="K177" s="48"/>
+    </row>
+    <row r="178" spans="11:11" s="21" customFormat="1">
+      <c r="K178" s="48"/>
+    </row>
+    <row r="179" spans="11:11" s="21" customFormat="1">
+      <c r="K179" s="48"/>
+    </row>
+    <row r="180" spans="11:11" s="21" customFormat="1">
+      <c r="K180" s="48"/>
+    </row>
+    <row r="181" spans="11:11" s="21" customFormat="1">
+      <c r="K181" s="48"/>
+    </row>
+    <row r="182" spans="11:11" s="21" customFormat="1">
+      <c r="K182" s="48"/>
+    </row>
+    <row r="183" spans="11:11" s="21" customFormat="1">
+      <c r="K183" s="48"/>
+    </row>
+    <row r="184" spans="11:11" s="21" customFormat="1">
+      <c r="K184" s="48"/>
+    </row>
+    <row r="185" spans="11:11" s="21" customFormat="1">
+      <c r="K185" s="48"/>
+    </row>
+    <row r="186" spans="11:11" s="21" customFormat="1">
+      <c r="K186" s="48"/>
+    </row>
+    <row r="187" spans="11:11" s="21" customFormat="1">
+      <c r="K187" s="48"/>
+    </row>
+    <row r="188" spans="11:11" s="21" customFormat="1">
+      <c r="K188" s="48"/>
+    </row>
+    <row r="189" spans="11:11" s="21" customFormat="1">
+      <c r="K189" s="48"/>
+    </row>
+    <row r="190" spans="11:11" s="21" customFormat="1">
+      <c r="K190" s="48"/>
+    </row>
+    <row r="191" spans="11:11" s="21" customFormat="1">
+      <c r="K191" s="48"/>
+    </row>
+    <row r="192" spans="11:11" s="21" customFormat="1">
+      <c r="K192" s="48"/>
+    </row>
+    <row r="193" spans="11:11" s="21" customFormat="1">
+      <c r="K193" s="48"/>
+    </row>
+    <row r="194" spans="11:11" s="21" customFormat="1">
+      <c r="K194" s="48"/>
+    </row>
+    <row r="195" spans="11:11" s="21" customFormat="1">
+      <c r="K195" s="48"/>
+    </row>
+    <row r="196" spans="11:11" s="21" customFormat="1">
+      <c r="K196" s="48"/>
+    </row>
+    <row r="197" spans="11:11" s="21" customFormat="1">
+      <c r="K197" s="48"/>
+    </row>
+    <row r="198" spans="11:11" s="21" customFormat="1">
+      <c r="K198" s="48"/>
+    </row>
+    <row r="199" spans="11:11" s="21" customFormat="1">
+      <c r="K199" s="48"/>
+    </row>
+    <row r="200" spans="11:11" s="21" customFormat="1">
+      <c r="K200" s="48"/>
+    </row>
+    <row r="201" spans="11:11" s="21" customFormat="1">
+      <c r="K201" s="48"/>
+    </row>
+    <row r="202" spans="11:11" s="21" customFormat="1">
+      <c r="K202" s="48"/>
+    </row>
+    <row r="203" spans="11:11" s="21" customFormat="1">
+      <c r="K203" s="48"/>
+    </row>
+    <row r="204" spans="11:11" s="21" customFormat="1">
+      <c r="K204" s="48"/>
+    </row>
+    <row r="205" spans="11:11" s="21" customFormat="1">
+      <c r="K205" s="48"/>
+    </row>
+    <row r="206" spans="11:11" s="21" customFormat="1">
+      <c r="K206" s="48"/>
+    </row>
+    <row r="207" spans="11:11" s="21" customFormat="1">
+      <c r="K207" s="48"/>
+    </row>
+    <row r="208" spans="11:11" s="21" customFormat="1">
+      <c r="K208" s="48"/>
+    </row>
+    <row r="209" spans="11:11" s="21" customFormat="1">
+      <c r="K209" s="48"/>
+    </row>
+    <row r="210" spans="11:11" s="21" customFormat="1">
+      <c r="K210" s="48"/>
+    </row>
+    <row r="211" spans="11:11" s="21" customFormat="1">
+      <c r="K211" s="48"/>
+    </row>
+    <row r="212" spans="11:11" s="21" customFormat="1">
+      <c r="K212" s="48"/>
+    </row>
+    <row r="213" spans="11:11" s="21" customFormat="1">
+      <c r="K213" s="48"/>
+    </row>
+    <row r="214" spans="11:11" s="21" customFormat="1">
+      <c r="K214" s="48"/>
+    </row>
+    <row r="215" spans="11:11" s="21" customFormat="1">
+      <c r="K215" s="48"/>
+    </row>
+    <row r="216" spans="11:11" s="21" customFormat="1">
+      <c r="K216" s="48"/>
+    </row>
+    <row r="217" spans="11:11" s="21" customFormat="1">
+      <c r="K217" s="48"/>
+    </row>
+    <row r="218" spans="11:11" s="21" customFormat="1">
+      <c r="K218" s="48"/>
+    </row>
+    <row r="219" spans="11:11" s="21" customFormat="1">
+      <c r="K219" s="48"/>
+    </row>
+    <row r="220" spans="11:11" s="21" customFormat="1">
+      <c r="K220" s="48"/>
+    </row>
+    <row r="221" spans="11:11" s="21" customFormat="1">
+      <c r="K221" s="48"/>
+    </row>
+    <row r="222" spans="11:11" s="21" customFormat="1">
+      <c r="K222" s="48"/>
+    </row>
+    <row r="223" spans="11:11" s="21" customFormat="1">
+      <c r="K223" s="48"/>
+    </row>
+    <row r="224" spans="11:11" s="21" customFormat="1">
+      <c r="K224" s="48"/>
+    </row>
+    <row r="225" spans="11:11" s="21" customFormat="1">
+      <c r="K225" s="48"/>
+    </row>
+    <row r="226" spans="11:11" s="21" customFormat="1">
+      <c r="K226" s="48"/>
+    </row>
+    <row r="227" spans="11:11" s="21" customFormat="1">
+      <c r="K227" s="48"/>
+    </row>
+    <row r="228" spans="11:11" s="21" customFormat="1">
+      <c r="K228" s="48"/>
+    </row>
+    <row r="229" spans="11:11" s="21" customFormat="1">
+      <c r="K229" s="48"/>
+    </row>
+    <row r="230" spans="11:11" s="21" customFormat="1">
+      <c r="K230" s="48"/>
+    </row>
+    <row r="231" spans="11:11" s="21" customFormat="1">
+      <c r="K231" s="48"/>
+    </row>
+    <row r="232" spans="11:11" s="21" customFormat="1">
+      <c r="K232" s="48"/>
+    </row>
+    <row r="233" spans="11:11" s="21" customFormat="1">
+      <c r="K233" s="48"/>
+    </row>
+    <row r="234" spans="11:11" s="21" customFormat="1">
+      <c r="K234" s="48"/>
+    </row>
+    <row r="235" spans="11:11" s="21" customFormat="1">
+      <c r="K235" s="48"/>
+    </row>
+    <row r="236" spans="11:11" s="21" customFormat="1">
+      <c r="K236" s="48"/>
+    </row>
+    <row r="237" spans="11:11" s="21" customFormat="1">
+      <c r="K237" s="48"/>
+    </row>
+    <row r="238" spans="11:11" s="21" customFormat="1">
+      <c r="K238" s="48"/>
+    </row>
+    <row r="239" spans="11:11" s="21" customFormat="1">
+      <c r="K239" s="48"/>
+    </row>
+    <row r="240" spans="11:11" s="21" customFormat="1">
+      <c r="K240" s="48"/>
+    </row>
+    <row r="241" spans="11:11" s="21" customFormat="1">
+      <c r="K241" s="48"/>
+    </row>
+    <row r="242" spans="11:11" s="21" customFormat="1">
+      <c r="K242" s="48"/>
+    </row>
+    <row r="243" spans="11:11" s="21" customFormat="1">
+      <c r="K243" s="48"/>
+    </row>
+    <row r="244" spans="11:11" s="21" customFormat="1">
+      <c r="K244" s="48"/>
+    </row>
+    <row r="245" spans="11:11" s="21" customFormat="1">
+      <c r="K245" s="48"/>
+    </row>
+    <row r="246" spans="11:11" s="21" customFormat="1">
+      <c r="K246" s="48"/>
+    </row>
+    <row r="247" spans="11:11" s="21" customFormat="1">
+      <c r="K247" s="48"/>
+    </row>
+    <row r="248" spans="11:11" s="21" customFormat="1">
+      <c r="K248" s="48"/>
+    </row>
+    <row r="249" spans="11:11" s="21" customFormat="1">
+      <c r="K249" s="48"/>
+    </row>
+    <row r="250" spans="11:11" s="21" customFormat="1">
+      <c r="K250" s="48"/>
+    </row>
+    <row r="251" spans="11:11" s="21" customFormat="1">
+      <c r="K251" s="48"/>
+    </row>
+    <row r="252" spans="11:11" s="21" customFormat="1">
+      <c r="K252" s="48"/>
+    </row>
+    <row r="253" spans="11:11" s="21" customFormat="1">
+      <c r="K253" s="48"/>
+    </row>
+    <row r="254" spans="11:11" s="21" customFormat="1">
+      <c r="K254" s="48"/>
+    </row>
+    <row r="255" spans="11:11" s="21" customFormat="1">
+      <c r="K255" s="48"/>
+    </row>
+    <row r="256" spans="11:11" s="21" customFormat="1">
+      <c r="K256" s="48"/>
+    </row>
+    <row r="257" spans="11:11" s="21" customFormat="1">
+      <c r="K257" s="48"/>
+    </row>
+    <row r="258" spans="11:11" s="21" customFormat="1">
+      <c r="K258" s="48"/>
+    </row>
+    <row r="259" spans="11:11" s="21" customFormat="1">
+      <c r="K259" s="48"/>
+    </row>
+    <row r="260" spans="11:11" s="21" customFormat="1">
+      <c r="K260" s="48"/>
+    </row>
+    <row r="261" spans="11:11" s="21" customFormat="1">
+      <c r="K261" s="48"/>
+    </row>
+    <row r="262" spans="11:11" s="21" customFormat="1">
+      <c r="K262" s="48"/>
+    </row>
+    <row r="263" spans="11:11" s="21" customFormat="1">
+      <c r="K263" s="48"/>
+    </row>
+    <row r="264" spans="11:11" s="21" customFormat="1">
+      <c r="K264" s="48"/>
+    </row>
+    <row r="265" spans="11:11" s="21" customFormat="1">
+      <c r="K265" s="48"/>
+    </row>
+    <row r="266" spans="11:11" s="21" customFormat="1">
+      <c r="K266" s="48"/>
+    </row>
+    <row r="267" spans="11:11" s="21" customFormat="1">
+      <c r="K267" s="48"/>
+    </row>
+    <row r="268" spans="11:11" s="21" customFormat="1">
+      <c r="K268" s="48"/>
+    </row>
+    <row r="269" spans="11:11" s="21" customFormat="1">
+      <c r="K269" s="48"/>
+    </row>
+    <row r="270" spans="11:11" s="21" customFormat="1">
+      <c r="K270" s="48"/>
+    </row>
+    <row r="271" spans="11:11" s="21" customFormat="1">
+      <c r="K271" s="48"/>
+    </row>
+    <row r="272" spans="11:11" s="21" customFormat="1">
+      <c r="K272" s="48"/>
+    </row>
+    <row r="273" spans="11:11" s="21" customFormat="1">
+      <c r="K273" s="48"/>
+    </row>
+    <row r="274" spans="11:11" s="21" customFormat="1">
+      <c r="K274" s="48"/>
+    </row>
+    <row r="275" spans="11:11" s="21" customFormat="1">
+      <c r="K275" s="48"/>
+    </row>
+    <row r="276" spans="11:11" s="21" customFormat="1">
+      <c r="K276" s="48"/>
+    </row>
+    <row r="277" spans="11:11" s="21" customFormat="1">
+      <c r="K277" s="48"/>
+    </row>
+    <row r="278" spans="11:11" s="21" customFormat="1">
+      <c r="K278" s="48"/>
+    </row>
+    <row r="279" spans="11:11" s="21" customFormat="1">
+      <c r="K279" s="48"/>
+    </row>
+    <row r="280" spans="11:11" s="21" customFormat="1">
+      <c r="K280" s="48"/>
+    </row>
+    <row r="281" spans="11:11" s="21" customFormat="1">
+      <c r="K281" s="48"/>
+    </row>
+    <row r="282" spans="11:11" s="21" customFormat="1">
+      <c r="K282" s="48"/>
+    </row>
+    <row r="283" spans="11:11" s="21" customFormat="1">
+      <c r="K283" s="48"/>
+    </row>
+    <row r="284" spans="11:11" s="21" customFormat="1">
+      <c r="K284" s="48"/>
+    </row>
+    <row r="285" spans="11:11" s="21" customFormat="1">
+      <c r="K285" s="48"/>
+    </row>
+    <row r="286" spans="11:11" s="21" customFormat="1">
+      <c r="K286" s="48"/>
+    </row>
+    <row r="287" spans="11:11" s="21" customFormat="1">
+      <c r="K287" s="48"/>
+    </row>
+    <row r="288" spans="11:11" s="21" customFormat="1">
+      <c r="K288" s="48"/>
+    </row>
+    <row r="289" spans="11:11" s="21" customFormat="1">
+      <c r="K289" s="48"/>
+    </row>
+    <row r="290" spans="11:11" s="21" customFormat="1">
+      <c r="K290" s="48"/>
+    </row>
+    <row r="291" spans="11:11" s="21" customFormat="1">
+      <c r="K291" s="48"/>
+    </row>
+    <row r="292" spans="11:11" s="21" customFormat="1">
+      <c r="K292" s="48"/>
+    </row>
+    <row r="293" spans="11:11" s="21" customFormat="1">
+      <c r="K293" s="48"/>
+    </row>
+    <row r="294" spans="11:11" s="21" customFormat="1">
+      <c r="K294" s="48"/>
+    </row>
+    <row r="295" spans="11:11" s="21" customFormat="1">
+      <c r="K295" s="48"/>
+    </row>
+    <row r="296" spans="11:11" s="21" customFormat="1">
+      <c r="K296" s="48"/>
+    </row>
+    <row r="297" spans="11:11" s="21" customFormat="1">
+      <c r="K297" s="48"/>
+    </row>
+    <row r="298" spans="11:11" s="21" customFormat="1">
+      <c r="K298" s="48"/>
+    </row>
+    <row r="299" spans="11:11" s="21" customFormat="1">
+      <c r="K299" s="48"/>
+    </row>
+    <row r="300" spans="11:11" s="21" customFormat="1">
+      <c r="K300" s="48"/>
+    </row>
+    <row r="301" spans="11:11" s="21" customFormat="1">
+      <c r="K301" s="48"/>
+    </row>
+    <row r="302" spans="11:11" s="21" customFormat="1">
+      <c r="K302" s="48"/>
+    </row>
+    <row r="303" spans="11:11" s="21" customFormat="1">
+      <c r="K303" s="48"/>
+    </row>
+    <row r="304" spans="11:11" s="21" customFormat="1">
+      <c r="K304" s="48"/>
+    </row>
+    <row r="305" spans="11:11" s="21" customFormat="1">
+      <c r="K305" s="48"/>
+    </row>
+    <row r="306" spans="11:11" s="21" customFormat="1">
+      <c r="K306" s="48"/>
+    </row>
+    <row r="307" spans="11:11" s="21" customFormat="1">
+      <c r="K307" s="48"/>
+    </row>
+    <row r="308" spans="11:11" s="21" customFormat="1">
+      <c r="K308" s="48"/>
+    </row>
+    <row r="309" spans="11:11" s="21" customFormat="1">
+      <c r="K309" s="48"/>
+    </row>
+    <row r="310" spans="11:11" s="21" customFormat="1">
+      <c r="K310" s="48"/>
+    </row>
+    <row r="311" spans="11:11" s="21" customFormat="1">
+      <c r="K311" s="48"/>
+    </row>
+    <row r="312" spans="11:11" s="21" customFormat="1">
+      <c r="K312" s="48"/>
+    </row>
+    <row r="313" spans="11:11" s="21" customFormat="1">
+      <c r="K313" s="48"/>
+    </row>
+    <row r="314" spans="11:11" s="21" customFormat="1">
+      <c r="K314" s="48"/>
+    </row>
+    <row r="315" spans="11:11" s="21" customFormat="1">
+      <c r="K315" s="48"/>
+    </row>
+    <row r="316" spans="11:11" s="21" customFormat="1">
+      <c r="K316" s="48"/>
+    </row>
+    <row r="317" spans="11:11" s="21" customFormat="1">
+      <c r="K317" s="48"/>
+    </row>
+    <row r="318" spans="11:11" s="21" customFormat="1">
+      <c r="K318" s="48"/>
+    </row>
+    <row r="319" spans="11:11" s="21" customFormat="1">
+      <c r="K319" s="48"/>
+    </row>
+    <row r="320" spans="11:11" s="21" customFormat="1">
+      <c r="K320" s="48"/>
+    </row>
+    <row r="321" spans="11:11" s="21" customFormat="1">
+      <c r="K321" s="48"/>
+    </row>
+    <row r="322" spans="11:11" s="21" customFormat="1">
+      <c r="K322" s="48"/>
+    </row>
+    <row r="323" spans="11:11" s="21" customFormat="1">
+      <c r="K323" s="48"/>
+    </row>
+    <row r="324" spans="11:11" s="21" customFormat="1">
+      <c r="K324" s="48"/>
+    </row>
+    <row r="325" spans="11:11" s="21" customFormat="1">
+      <c r="K325" s="48"/>
+    </row>
+    <row r="326" spans="11:11" s="21" customFormat="1">
+      <c r="K326" s="48"/>
+    </row>
+    <row r="327" spans="11:11" s="21" customFormat="1">
+      <c r="K327" s="48"/>
+    </row>
+    <row r="328" spans="11:11" s="21" customFormat="1">
+      <c r="K328" s="48"/>
+    </row>
+    <row r="329" spans="11:11" s="21" customFormat="1">
+      <c r="K329" s="48"/>
+    </row>
+    <row r="330" spans="11:11" s="21" customFormat="1">
+      <c r="K330" s="48"/>
+    </row>
+    <row r="331" spans="11:11" s="21" customFormat="1">
+      <c r="K331" s="48"/>
+    </row>
+    <row r="332" spans="11:11" s="21" customFormat="1">
+      <c r="K332" s="48"/>
+    </row>
+    <row r="333" spans="11:11" s="21" customFormat="1">
+      <c r="K333" s="48"/>
+    </row>
+    <row r="334" spans="11:11" s="21" customFormat="1">
+      <c r="K334" s="48"/>
+    </row>
+    <row r="335" spans="11:11" s="21" customFormat="1">
+      <c r="K335" s="48"/>
+    </row>
+    <row r="336" spans="11:11" s="21" customFormat="1">
+      <c r="K336" s="48"/>
+    </row>
+    <row r="337" spans="11:11" s="21" customFormat="1">
+      <c r="K337" s="48"/>
+    </row>
+    <row r="338" spans="11:11" s="21" customFormat="1">
+      <c r="K338" s="48"/>
+    </row>
+    <row r="339" spans="11:11" s="21" customFormat="1">
+      <c r="K339" s="48"/>
+    </row>
+    <row r="340" spans="11:11" s="21" customFormat="1">
+      <c r="K340" s="48"/>
+    </row>
+    <row r="341" spans="11:11" s="21" customFormat="1">
+      <c r="K341" s="48"/>
+    </row>
+    <row r="342" spans="11:11" s="21" customFormat="1">
+      <c r="K342" s="48"/>
+    </row>
+    <row r="343" spans="11:11" s="21" customFormat="1">
+      <c r="K343" s="48"/>
+    </row>
+    <row r="344" spans="11:11" s="21" customFormat="1">
+      <c r="K344" s="48"/>
+    </row>
+    <row r="345" spans="11:11" s="21" customFormat="1">
+      <c r="K345" s="48"/>
+    </row>
+    <row r="346" spans="11:11" s="21" customFormat="1">
+      <c r="K346" s="48"/>
+    </row>
+    <row r="347" spans="11:11" s="21" customFormat="1">
+      <c r="K347" s="48"/>
+    </row>
+    <row r="348" spans="11:11" s="21" customFormat="1">
+      <c r="K348" s="48"/>
+    </row>
+    <row r="349" spans="11:11" s="21" customFormat="1">
+      <c r="K349" s="48"/>
+    </row>
+    <row r="350" spans="11:11" s="21" customFormat="1">
+      <c r="K350" s="48"/>
+    </row>
+    <row r="351" spans="11:11" s="21" customFormat="1">
+      <c r="K351" s="48"/>
+    </row>
+    <row r="352" spans="11:11" s="21" customFormat="1">
+      <c r="K352" s="48"/>
+    </row>
+    <row r="353" spans="11:11" s="21" customFormat="1">
+      <c r="K353" s="48"/>
+    </row>
+    <row r="354" spans="11:11" s="21" customFormat="1">
+      <c r="K354" s="48"/>
+    </row>
+    <row r="355" spans="11:11" s="21" customFormat="1">
+      <c r="K355" s="48"/>
+    </row>
+    <row r="356" spans="11:11" s="21" customFormat="1">
+      <c r="K356" s="48"/>
+    </row>
+    <row r="357" spans="11:11" s="21" customFormat="1">
+      <c r="K357" s="48"/>
+    </row>
+    <row r="358" spans="11:11" s="21" customFormat="1">
+      <c r="K358" s="48"/>
+    </row>
+    <row r="359" spans="11:11" s="21" customFormat="1">
+      <c r="K359" s="48"/>
+    </row>
+    <row r="360" spans="11:11" s="21" customFormat="1">
+      <c r="K360" s="48"/>
+    </row>
+    <row r="361" spans="11:11" s="21" customFormat="1">
+      <c r="K361" s="48"/>
+    </row>
+    <row r="362" spans="11:11" s="21" customFormat="1">
+      <c r="K362" s="48"/>
+    </row>
+    <row r="363" spans="11:11" s="21" customFormat="1">
+      <c r="K363" s="48"/>
+    </row>
+    <row r="364" spans="11:11" s="21" customFormat="1">
+      <c r="K364" s="48"/>
+    </row>
+    <row r="365" spans="11:11" s="21" customFormat="1">
+      <c r="K365" s="48"/>
+    </row>
+    <row r="366" spans="11:11" s="21" customFormat="1">
+      <c r="K366" s="48"/>
+    </row>
+    <row r="367" spans="11:11" s="21" customFormat="1">
+      <c r="K367" s="48"/>
+    </row>
+    <row r="368" spans="11:11" s="21" customFormat="1">
+      <c r="K368" s="48"/>
+    </row>
+    <row r="369" spans="11:11" s="21" customFormat="1">
+      <c r="K369" s="48"/>
+    </row>
+    <row r="370" spans="11:11" s="21" customFormat="1">
+      <c r="K370" s="48"/>
+    </row>
+    <row r="371" spans="11:11" s="21" customFormat="1">
+      <c r="K371" s="48"/>
+    </row>
+    <row r="372" spans="11:11" s="21" customFormat="1">
+      <c r="K372" s="48"/>
+    </row>
+    <row r="373" spans="11:11" s="21" customFormat="1">
+      <c r="K373" s="48"/>
+    </row>
+    <row r="374" spans="11:11" s="21" customFormat="1">
+      <c r="K374" s="48"/>
+    </row>
+    <row r="375" spans="11:11" s="21" customFormat="1">
+      <c r="K375" s="48"/>
+    </row>
+    <row r="376" spans="11:11" s="21" customFormat="1">
+      <c r="K376" s="48"/>
+    </row>
+    <row r="377" spans="11:11" s="21" customFormat="1">
+      <c r="K377" s="48"/>
+    </row>
+    <row r="378" spans="11:11" s="21" customFormat="1">
+      <c r="K378" s="48"/>
+    </row>
+    <row r="379" spans="11:11" s="21" customFormat="1">
+      <c r="K379" s="48"/>
+    </row>
+    <row r="380" spans="11:11" s="21" customFormat="1">
+      <c r="K380" s="48"/>
+    </row>
+    <row r="381" spans="11:11" s="21" customFormat="1">
+      <c r="K381" s="48"/>
+    </row>
+    <row r="382" spans="11:11" s="21" customFormat="1">
+      <c r="K382" s="48"/>
+    </row>
+    <row r="383" spans="11:11" s="21" customFormat="1">
+      <c r="K383" s="48"/>
+    </row>
+    <row r="384" spans="11:11" s="21" customFormat="1">
+      <c r="K384" s="48"/>
+    </row>
+    <row r="385" spans="1:11" s="21" customFormat="1">
+      <c r="A385" s="1"/>
+      <c r="K385" s="48"/>
+    </row>
+    <row r="386" spans="1:11" s="21" customFormat="1">
+      <c r="A386" s="1"/>
+      <c r="K386" s="48"/>
+    </row>
+    <row r="387" spans="1:11" s="21" customFormat="1">
+      <c r="A387" s="1"/>
+      <c r="K387" s="48"/>
+    </row>
+    <row r="388" spans="1:11" s="21" customFormat="1">
+      <c r="A388" s="1"/>
+      <c r="K388" s="48"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:J58">
       <formula1>"passed,failed,skipped,blocked"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A3" location="RTM!B7" tooltip="Landing Page" display="SC_OH_1"/>
+    <hyperlink ref="A4" location="RTM!B8" tooltip="Login Scenario" display="SC_OH_2"/>
+    <hyperlink ref="A5" location="RTM!B8" tooltip="Login Scenario" display="SC_OH_2"/>
+    <hyperlink ref="A6" location="RTM!B8" tooltip="Login Scenario" display="SC_OH_2"/>
+    <hyperlink ref="A7" location="RTM!B8" tooltip="Login Scenario" display="SC_OH_2"/>
+    <hyperlink ref="A8" location="RTM!B9" tooltip="Login Scenario" display="SC_OH_3"/>
+    <hyperlink ref="A9" location="RTM!B10" tooltip="Login Scenario" display="SC_OH_4"/>
+    <hyperlink ref="A10" location="RTM!B11" tooltip="Login Scenario" display="SC_OH_5"/>
+    <hyperlink ref="A11" location="RTM!B11" tooltip="Login Scenario" display="SC_OH_5"/>
+    <hyperlink ref="A12" location="RTM!B11" tooltip="Login Scenario" display="SC_OH_5"/>
+    <hyperlink ref="A13" location="RTM!B11" tooltip="Login Scenario" display="SC_OH_5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1942,14 +3165,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" thickTop="1" thickBot="1">
       <c r="A2" s="22"/>
@@ -2063,17 +3286,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -2243,11 +3455,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2256,24 +3475,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2292,18 +3498,35 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Profile" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
   <si>
     <t>Project ID</t>
   </si>
@@ -361,9 +361,6 @@
 2. Click on "Forgot your password?"</t>
   </si>
   <si>
-    <t>User should be navigated to forgor your page.</t>
-  </si>
-  <si>
     <t>Landing Page - Orange HRM link</t>
   </si>
   <si>
@@ -423,6 +420,67 @@
   </si>
   <si>
     <t>User should be navigated to Orange HRM profle of twitter in new tab.</t>
+  </si>
+  <si>
+    <t>Fogot Your Password Page</t>
+  </si>
+  <si>
+    <t>TC_OH_12</t>
+  </si>
+  <si>
+    <t>OH_Req 5</t>
+  </si>
+  <si>
+    <t>OH_Req 6</t>
+  </si>
+  <si>
+    <t>OH_Req 7</t>
+  </si>
+  <si>
+    <t>OH_Req 8</t>
+  </si>
+  <si>
+    <t>OH_Req 9</t>
+  </si>
+  <si>
+    <t>OH_Req 10</t>
+  </si>
+  <si>
+    <t>OH_Req 11</t>
+  </si>
+  <si>
+    <t>OH_Req 12</t>
+  </si>
+  <si>
+    <t>OH_Req 13</t>
+  </si>
+  <si>
+    <t>OH_Req 14</t>
+  </si>
+  <si>
+    <t>User should be navigated to forgor your password page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate/access to the url mentioned in the RTM 
+</t>
+  </si>
+  <si>
+    <t>To verify forgot password page UI component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. User should see orange hrm logo in the top of the page.
+2. User should see Header as "Forgot Your Password" 
+3. User should see the message as "Please enter your username to identify your account to reset your password." above the text box
+4. User should see the lable as "Orangehrm Username" for the text box
+5. Text box should be displayed 
+6. Reset button and Cancel button should be displayed
+7. OrgangeHRM version should be present as "Orange HRM 4.2"
+8. Copyright detail should be present as "© 2005 - 2022 OrangeHRM, Inc. All rights reserved."
+9. Icon with link for Linkendin, Facebook, Twitter, youtube should be present.</t>
+  </si>
+  <si>
+    <t>Forgot Your Password validation</t>
   </si>
 </sst>
 </file>
@@ -431,8 +489,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -718,7 +776,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -821,31 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -856,18 +890,43 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -909,7 +968,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,11 +1399,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="22.5">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
     </row>
     <row r="5" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C5" s="6"/>
@@ -1353,28 +1412,28 @@
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="47"/>
     </row>
     <row r="10" spans="2:4" ht="17.25" customHeight="1">
       <c r="B10" s="9"/>
@@ -1399,7 +1458,7 @@
       <c r="C13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="35">
         <v>44607</v>
       </c>
     </row>
@@ -1465,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
@@ -1512,7 +1571,7 @@
       <c r="A7" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1526,7 +1585,7 @@
       <c r="A8" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1537,11 +1596,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="34"/>
+      <c r="A9" s="34" t="s">
+        <v>119</v>
+      </c>
       <c r="B9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="15">
@@ -1549,47 +1610,61 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
+      <c r="A10" s="34" t="s">
+        <v>120</v>
+      </c>
       <c r="B10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>99</v>
+      <c r="C10" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="34"/>
+      <c r="A11" s="34" t="s">
+        <v>121</v>
+      </c>
       <c r="B11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>100</v>
+      <c r="C11" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="D11" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="15"/>
+      <c r="A12" s="34" t="s">
+        <v>122</v>
+      </c>
       <c r="B12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="15"/>
+      <c r="A13" s="34" t="s">
+        <v>123</v>
+      </c>
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="34" t="s">
+        <v>124</v>
+      </c>
       <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
@@ -1597,7 +1672,9 @@
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" ht="13.9">
-      <c r="A15" s="15"/>
+      <c r="A15" s="34" t="s">
+        <v>125</v>
+      </c>
       <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
@@ -1605,7 +1682,9 @@
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" ht="13.9">
-      <c r="A16" s="15"/>
+      <c r="A16" s="34" t="s">
+        <v>126</v>
+      </c>
       <c r="B16" s="15" t="s">
         <v>66</v>
       </c>
@@ -1613,7 +1692,9 @@
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.9">
-      <c r="A17" s="15"/>
+      <c r="A17" s="34" t="s">
+        <v>127</v>
+      </c>
       <c r="B17" s="15" t="s">
         <v>67</v>
       </c>
@@ -1621,7 +1702,9 @@
       <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="13.9">
-      <c r="A18" s="15"/>
+      <c r="A18" s="34" t="s">
+        <v>128</v>
+      </c>
       <c r="B18" s="15" t="s">
         <v>68</v>
       </c>
@@ -1641,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M388"/>
+  <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -1657,7 +1740,7 @@
     <col min="6" max="6" width="33.73046875" style="1" customWidth="1"/>
     <col min="7" max="7" width="57.9296875" style="1" customWidth="1"/>
     <col min="8" max="10" width="26.1328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="36" style="49"/>
+    <col min="11" max="11" width="36" style="41"/>
     <col min="12" max="16384" width="36" style="1"/>
   </cols>
   <sheetData>
@@ -1689,10 +1772,10 @@
       <c r="I1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="39" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="19" t="s">
@@ -1730,29 +1813,29 @@
       <c r="I2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="48"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:13" s="21" customFormat="1" ht="113.65" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="37" t="s">
         <v>74</v>
       </c>
       <c r="F3" s="32"/>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="40">
         <v>44607</v>
       </c>
     </row>
@@ -1760,25 +1843,25 @@
       <c r="A4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="40">
         <v>44607</v>
       </c>
     </row>
@@ -1786,25 +1869,25 @@
       <c r="A5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="40">
         <v>44607</v>
       </c>
     </row>
@@ -1812,25 +1895,25 @@
       <c r="A6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="40">
         <v>44607</v>
       </c>
     </row>
@@ -1838,25 +1921,25 @@
       <c r="A7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="40">
         <v>44607</v>
       </c>
     </row>
@@ -1864,1270 +1947,1281 @@
       <c r="A8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="48"/>
+      <c r="G8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:13" s="21" customFormat="1">
       <c r="A9" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>101</v>
+      <c r="B9" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="K9" s="48"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:13" s="21" customFormat="1" ht="38.25">
       <c r="A10" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="45" t="s">
+      <c r="B10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>104</v>
+      <c r="E10" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="48"/>
+      <c r="G10" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:13" s="21" customFormat="1" ht="38.25">
       <c r="A11" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="D11" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="48"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:13" s="21" customFormat="1" ht="38.25">
       <c r="A12" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="45" t="s">
+      <c r="B12" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>114</v>
+      <c r="E12" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="48"/>
+      <c r="G12" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:13" s="21" customFormat="1" ht="38.25">
       <c r="A13" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="45" t="s">
+      <c r="B13" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="48"/>
-    </row>
-    <row r="14" spans="1:13" s="21" customFormat="1">
-      <c r="A14" s="33"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" s="21" customFormat="1" ht="178.5">
+      <c r="A14" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="F14" s="32"/>
-      <c r="K14" s="48"/>
+      <c r="G14" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:13" s="21" customFormat="1">
-      <c r="A15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="K15" s="48"/>
+      <c r="E15" s="32"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1">
       <c r="A16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="K16" s="48"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="21" customFormat="1">
       <c r="A17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="K17" s="48"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" s="21" customFormat="1">
       <c r="A18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="K18" s="48"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" s="21" customFormat="1">
-      <c r="A19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="K19" s="48"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" s="21" customFormat="1">
       <c r="F20" s="32"/>
-      <c r="K20" s="48"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="21" customFormat="1">
       <c r="F21" s="32"/>
-      <c r="K21" s="48"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" s="21" customFormat="1">
       <c r="F22" s="32"/>
-      <c r="K22" s="48"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1">
-      <c r="F23" s="32"/>
-      <c r="K23" s="48"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" s="21" customFormat="1">
-      <c r="K24" s="48"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" s="21" customFormat="1">
-      <c r="K25" s="48"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:11" s="21" customFormat="1">
-      <c r="K26" s="48"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:11" s="21" customFormat="1">
-      <c r="K27" s="48"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11" s="21" customFormat="1">
-      <c r="K28" s="48"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" spans="1:11" s="21" customFormat="1">
-      <c r="K29" s="48"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:11" s="21" customFormat="1">
-      <c r="K30" s="48"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:11" s="21" customFormat="1">
-      <c r="K31" s="48"/>
+      <c r="K31" s="40"/>
     </row>
     <row r="32" spans="1:11" s="21" customFormat="1">
-      <c r="K32" s="48"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="11:11" s="21" customFormat="1">
-      <c r="K33" s="48"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="11:11" s="21" customFormat="1">
-      <c r="K34" s="48"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="11:11" s="21" customFormat="1">
-      <c r="K35" s="48"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="11:11" s="21" customFormat="1">
-      <c r="K36" s="48"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" spans="11:11" s="21" customFormat="1">
-      <c r="K37" s="48"/>
+      <c r="K37" s="40"/>
     </row>
     <row r="38" spans="11:11" s="21" customFormat="1">
-      <c r="K38" s="48"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="11:11" s="21" customFormat="1">
-      <c r="K39" s="48"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" spans="11:11" s="21" customFormat="1">
-      <c r="K40" s="48"/>
+      <c r="K40" s="40"/>
     </row>
     <row r="41" spans="11:11" s="21" customFormat="1">
-      <c r="K41" s="48"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" spans="11:11" s="21" customFormat="1">
-      <c r="K42" s="48"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="11:11" s="21" customFormat="1">
-      <c r="K43" s="48"/>
+      <c r="K43" s="40"/>
     </row>
     <row r="44" spans="11:11" s="21" customFormat="1">
-      <c r="K44" s="48"/>
+      <c r="K44" s="40"/>
     </row>
     <row r="45" spans="11:11" s="21" customFormat="1">
-      <c r="K45" s="48"/>
+      <c r="K45" s="40"/>
     </row>
     <row r="46" spans="11:11" s="21" customFormat="1">
-      <c r="K46" s="48"/>
+      <c r="K46" s="40"/>
     </row>
     <row r="47" spans="11:11" s="21" customFormat="1">
-      <c r="K47" s="48"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" spans="11:11" s="21" customFormat="1">
-      <c r="K48" s="48"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" spans="11:11" s="21" customFormat="1">
-      <c r="K49" s="48"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="11:11" s="21" customFormat="1">
-      <c r="K50" s="48"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" spans="11:11" s="21" customFormat="1">
-      <c r="K51" s="48"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" spans="11:11" s="21" customFormat="1">
-      <c r="K52" s="48"/>
+      <c r="K52" s="40"/>
     </row>
     <row r="53" spans="11:11" s="21" customFormat="1">
-      <c r="K53" s="48"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="11:11" s="21" customFormat="1">
-      <c r="K54" s="48"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="11:11" s="21" customFormat="1">
-      <c r="K55" s="48"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="11:11" s="21" customFormat="1">
-      <c r="K56" s="48"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="11:11" s="21" customFormat="1">
-      <c r="K57" s="48"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" spans="11:11" s="21" customFormat="1">
-      <c r="K58" s="48"/>
+      <c r="K58" s="40"/>
     </row>
     <row r="59" spans="11:11" s="21" customFormat="1">
-      <c r="K59" s="48"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="11:11" s="21" customFormat="1">
-      <c r="K60" s="48"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="11:11" s="21" customFormat="1">
-      <c r="K61" s="48"/>
+      <c r="K61" s="40"/>
     </row>
     <row r="62" spans="11:11" s="21" customFormat="1">
-      <c r="K62" s="48"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" spans="11:11" s="21" customFormat="1">
-      <c r="K63" s="48"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" spans="11:11" s="21" customFormat="1">
-      <c r="K64" s="48"/>
+      <c r="K64" s="40"/>
     </row>
     <row r="65" spans="11:11" s="21" customFormat="1">
-      <c r="K65" s="48"/>
+      <c r="K65" s="40"/>
     </row>
     <row r="66" spans="11:11" s="21" customFormat="1">
-      <c r="K66" s="48"/>
+      <c r="K66" s="40"/>
     </row>
     <row r="67" spans="11:11" s="21" customFormat="1">
-      <c r="K67" s="48"/>
+      <c r="K67" s="40"/>
     </row>
     <row r="68" spans="11:11" s="21" customFormat="1">
-      <c r="K68" s="48"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="11:11" s="21" customFormat="1">
-      <c r="K69" s="48"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="11:11" s="21" customFormat="1">
-      <c r="K70" s="48"/>
+      <c r="K70" s="40"/>
     </row>
     <row r="71" spans="11:11" s="21" customFormat="1">
-      <c r="K71" s="48"/>
+      <c r="K71" s="40"/>
     </row>
     <row r="72" spans="11:11" s="21" customFormat="1">
-      <c r="K72" s="48"/>
+      <c r="K72" s="40"/>
     </row>
     <row r="73" spans="11:11" s="21" customFormat="1">
-      <c r="K73" s="48"/>
+      <c r="K73" s="40"/>
     </row>
     <row r="74" spans="11:11" s="21" customFormat="1">
-      <c r="K74" s="48"/>
+      <c r="K74" s="40"/>
     </row>
     <row r="75" spans="11:11" s="21" customFormat="1">
-      <c r="K75" s="48"/>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="11:11" s="21" customFormat="1">
-      <c r="K76" s="48"/>
+      <c r="K76" s="40"/>
     </row>
     <row r="77" spans="11:11" s="21" customFormat="1">
-      <c r="K77" s="48"/>
+      <c r="K77" s="40"/>
     </row>
     <row r="78" spans="11:11" s="21" customFormat="1">
-      <c r="K78" s="48"/>
+      <c r="K78" s="40"/>
     </row>
     <row r="79" spans="11:11" s="21" customFormat="1">
-      <c r="K79" s="48"/>
+      <c r="K79" s="40"/>
     </row>
     <row r="80" spans="11:11" s="21" customFormat="1">
-      <c r="K80" s="48"/>
+      <c r="K80" s="40"/>
     </row>
     <row r="81" spans="11:11" s="21" customFormat="1">
-      <c r="K81" s="48"/>
+      <c r="K81" s="40"/>
     </row>
     <row r="82" spans="11:11" s="21" customFormat="1">
-      <c r="K82" s="48"/>
+      <c r="K82" s="40"/>
     </row>
     <row r="83" spans="11:11" s="21" customFormat="1">
-      <c r="K83" s="48"/>
+      <c r="K83" s="40"/>
     </row>
     <row r="84" spans="11:11" s="21" customFormat="1">
-      <c r="K84" s="48"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="11:11" s="21" customFormat="1">
-      <c r="K85" s="48"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="11:11" s="21" customFormat="1">
-      <c r="K86" s="48"/>
+      <c r="K86" s="40"/>
     </row>
     <row r="87" spans="11:11" s="21" customFormat="1">
-      <c r="K87" s="48"/>
+      <c r="K87" s="40"/>
     </row>
     <row r="88" spans="11:11" s="21" customFormat="1">
-      <c r="K88" s="48"/>
+      <c r="K88" s="40"/>
     </row>
     <row r="89" spans="11:11" s="21" customFormat="1">
-      <c r="K89" s="48"/>
+      <c r="K89" s="40"/>
     </row>
     <row r="90" spans="11:11" s="21" customFormat="1">
-      <c r="K90" s="48"/>
+      <c r="K90" s="40"/>
     </row>
     <row r="91" spans="11:11" s="21" customFormat="1">
-      <c r="K91" s="48"/>
+      <c r="K91" s="40"/>
     </row>
     <row r="92" spans="11:11" s="21" customFormat="1">
-      <c r="K92" s="48"/>
+      <c r="K92" s="40"/>
     </row>
     <row r="93" spans="11:11" s="21" customFormat="1">
-      <c r="K93" s="48"/>
+      <c r="K93" s="40"/>
     </row>
     <row r="94" spans="11:11" s="21" customFormat="1">
-      <c r="K94" s="48"/>
+      <c r="K94" s="40"/>
     </row>
     <row r="95" spans="11:11" s="21" customFormat="1">
-      <c r="K95" s="48"/>
+      <c r="K95" s="40"/>
     </row>
     <row r="96" spans="11:11" s="21" customFormat="1">
-      <c r="K96" s="48"/>
+      <c r="K96" s="40"/>
     </row>
     <row r="97" spans="11:11" s="21" customFormat="1">
-      <c r="K97" s="48"/>
+      <c r="K97" s="40"/>
     </row>
     <row r="98" spans="11:11" s="21" customFormat="1">
-      <c r="K98" s="48"/>
+      <c r="K98" s="40"/>
     </row>
     <row r="99" spans="11:11" s="21" customFormat="1">
-      <c r="K99" s="48"/>
+      <c r="K99" s="40"/>
     </row>
     <row r="100" spans="11:11" s="21" customFormat="1">
-      <c r="K100" s="48"/>
+      <c r="K100" s="40"/>
     </row>
     <row r="101" spans="11:11" s="21" customFormat="1">
-      <c r="K101" s="48"/>
+      <c r="K101" s="40"/>
     </row>
     <row r="102" spans="11:11" s="21" customFormat="1">
-      <c r="K102" s="48"/>
+      <c r="K102" s="40"/>
     </row>
     <row r="103" spans="11:11" s="21" customFormat="1">
-      <c r="K103" s="48"/>
+      <c r="K103" s="40"/>
     </row>
     <row r="104" spans="11:11" s="21" customFormat="1">
-      <c r="K104" s="48"/>
+      <c r="K104" s="40"/>
     </row>
     <row r="105" spans="11:11" s="21" customFormat="1">
-      <c r="K105" s="48"/>
+      <c r="K105" s="40"/>
     </row>
     <row r="106" spans="11:11" s="21" customFormat="1">
-      <c r="K106" s="48"/>
+      <c r="K106" s="40"/>
     </row>
     <row r="107" spans="11:11" s="21" customFormat="1">
-      <c r="K107" s="48"/>
+      <c r="K107" s="40"/>
     </row>
     <row r="108" spans="11:11" s="21" customFormat="1">
-      <c r="K108" s="48"/>
+      <c r="K108" s="40"/>
     </row>
     <row r="109" spans="11:11" s="21" customFormat="1">
-      <c r="K109" s="48"/>
+      <c r="K109" s="40"/>
     </row>
     <row r="110" spans="11:11" s="21" customFormat="1">
-      <c r="K110" s="48"/>
+      <c r="K110" s="40"/>
     </row>
     <row r="111" spans="11:11" s="21" customFormat="1">
-      <c r="K111" s="48"/>
+      <c r="K111" s="40"/>
     </row>
     <row r="112" spans="11:11" s="21" customFormat="1">
-      <c r="K112" s="48"/>
+      <c r="K112" s="40"/>
     </row>
     <row r="113" spans="11:11" s="21" customFormat="1">
-      <c r="K113" s="48"/>
+      <c r="K113" s="40"/>
     </row>
     <row r="114" spans="11:11" s="21" customFormat="1">
-      <c r="K114" s="48"/>
+      <c r="K114" s="40"/>
     </row>
     <row r="115" spans="11:11" s="21" customFormat="1">
-      <c r="K115" s="48"/>
+      <c r="K115" s="40"/>
     </row>
     <row r="116" spans="11:11" s="21" customFormat="1">
-      <c r="K116" s="48"/>
+      <c r="K116" s="40"/>
     </row>
     <row r="117" spans="11:11" s="21" customFormat="1">
-      <c r="K117" s="48"/>
+      <c r="K117" s="40"/>
     </row>
     <row r="118" spans="11:11" s="21" customFormat="1">
-      <c r="K118" s="48"/>
+      <c r="K118" s="40"/>
     </row>
     <row r="119" spans="11:11" s="21" customFormat="1">
-      <c r="K119" s="48"/>
+      <c r="K119" s="40"/>
     </row>
     <row r="120" spans="11:11" s="21" customFormat="1">
-      <c r="K120" s="48"/>
+      <c r="K120" s="40"/>
     </row>
     <row r="121" spans="11:11" s="21" customFormat="1">
-      <c r="K121" s="48"/>
+      <c r="K121" s="40"/>
     </row>
     <row r="122" spans="11:11" s="21" customFormat="1">
-      <c r="K122" s="48"/>
+      <c r="K122" s="40"/>
     </row>
     <row r="123" spans="11:11" s="21" customFormat="1">
-      <c r="K123" s="48"/>
+      <c r="K123" s="40"/>
     </row>
     <row r="124" spans="11:11" s="21" customFormat="1">
-      <c r="K124" s="48"/>
+      <c r="K124" s="40"/>
     </row>
     <row r="125" spans="11:11" s="21" customFormat="1">
-      <c r="K125" s="48"/>
+      <c r="K125" s="40"/>
     </row>
     <row r="126" spans="11:11" s="21" customFormat="1">
-      <c r="K126" s="48"/>
+      <c r="K126" s="40"/>
     </row>
     <row r="127" spans="11:11" s="21" customFormat="1">
-      <c r="K127" s="48"/>
+      <c r="K127" s="40"/>
     </row>
     <row r="128" spans="11:11" s="21" customFormat="1">
-      <c r="K128" s="48"/>
+      <c r="K128" s="40"/>
     </row>
     <row r="129" spans="11:11" s="21" customFormat="1">
-      <c r="K129" s="48"/>
+      <c r="K129" s="40"/>
     </row>
     <row r="130" spans="11:11" s="21" customFormat="1">
-      <c r="K130" s="48"/>
+      <c r="K130" s="40"/>
     </row>
     <row r="131" spans="11:11" s="21" customFormat="1">
-      <c r="K131" s="48"/>
+      <c r="K131" s="40"/>
     </row>
     <row r="132" spans="11:11" s="21" customFormat="1">
-      <c r="K132" s="48"/>
+      <c r="K132" s="40"/>
     </row>
     <row r="133" spans="11:11" s="21" customFormat="1">
-      <c r="K133" s="48"/>
+      <c r="K133" s="40"/>
     </row>
     <row r="134" spans="11:11" s="21" customFormat="1">
-      <c r="K134" s="48"/>
+      <c r="K134" s="40"/>
     </row>
     <row r="135" spans="11:11" s="21" customFormat="1">
-      <c r="K135" s="48"/>
+      <c r="K135" s="40"/>
     </row>
     <row r="136" spans="11:11" s="21" customFormat="1">
-      <c r="K136" s="48"/>
+      <c r="K136" s="40"/>
     </row>
     <row r="137" spans="11:11" s="21" customFormat="1">
-      <c r="K137" s="48"/>
+      <c r="K137" s="40"/>
     </row>
     <row r="138" spans="11:11" s="21" customFormat="1">
-      <c r="K138" s="48"/>
+      <c r="K138" s="40"/>
     </row>
     <row r="139" spans="11:11" s="21" customFormat="1">
-      <c r="K139" s="48"/>
+      <c r="K139" s="40"/>
     </row>
     <row r="140" spans="11:11" s="21" customFormat="1">
-      <c r="K140" s="48"/>
+      <c r="K140" s="40"/>
     </row>
     <row r="141" spans="11:11" s="21" customFormat="1">
-      <c r="K141" s="48"/>
+      <c r="K141" s="40"/>
     </row>
     <row r="142" spans="11:11" s="21" customFormat="1">
-      <c r="K142" s="48"/>
+      <c r="K142" s="40"/>
     </row>
     <row r="143" spans="11:11" s="21" customFormat="1">
-      <c r="K143" s="48"/>
+      <c r="K143" s="40"/>
     </row>
     <row r="144" spans="11:11" s="21" customFormat="1">
-      <c r="K144" s="48"/>
+      <c r="K144" s="40"/>
     </row>
     <row r="145" spans="11:11" s="21" customFormat="1">
-      <c r="K145" s="48"/>
+      <c r="K145" s="40"/>
     </row>
     <row r="146" spans="11:11" s="21" customFormat="1">
-      <c r="K146" s="48"/>
+      <c r="K146" s="40"/>
     </row>
     <row r="147" spans="11:11" s="21" customFormat="1">
-      <c r="K147" s="48"/>
+      <c r="K147" s="40"/>
     </row>
     <row r="148" spans="11:11" s="21" customFormat="1">
-      <c r="K148" s="48"/>
+      <c r="K148" s="40"/>
     </row>
     <row r="149" spans="11:11" s="21" customFormat="1">
-      <c r="K149" s="48"/>
+      <c r="K149" s="40"/>
     </row>
     <row r="150" spans="11:11" s="21" customFormat="1">
-      <c r="K150" s="48"/>
+      <c r="K150" s="40"/>
     </row>
     <row r="151" spans="11:11" s="21" customFormat="1">
-      <c r="K151" s="48"/>
+      <c r="K151" s="40"/>
     </row>
     <row r="152" spans="11:11" s="21" customFormat="1">
-      <c r="K152" s="48"/>
+      <c r="K152" s="40"/>
     </row>
     <row r="153" spans="11:11" s="21" customFormat="1">
-      <c r="K153" s="48"/>
+      <c r="K153" s="40"/>
     </row>
     <row r="154" spans="11:11" s="21" customFormat="1">
-      <c r="K154" s="48"/>
+      <c r="K154" s="40"/>
     </row>
     <row r="155" spans="11:11" s="21" customFormat="1">
-      <c r="K155" s="48"/>
+      <c r="K155" s="40"/>
     </row>
     <row r="156" spans="11:11" s="21" customFormat="1">
-      <c r="K156" s="48"/>
+      <c r="K156" s="40"/>
     </row>
     <row r="157" spans="11:11" s="21" customFormat="1">
-      <c r="K157" s="48"/>
+      <c r="K157" s="40"/>
     </row>
     <row r="158" spans="11:11" s="21" customFormat="1">
-      <c r="K158" s="48"/>
+      <c r="K158" s="40"/>
     </row>
     <row r="159" spans="11:11" s="21" customFormat="1">
-      <c r="K159" s="48"/>
+      <c r="K159" s="40"/>
     </row>
     <row r="160" spans="11:11" s="21" customFormat="1">
-      <c r="K160" s="48"/>
+      <c r="K160" s="40"/>
     </row>
     <row r="161" spans="11:11" s="21" customFormat="1">
-      <c r="K161" s="48"/>
+      <c r="K161" s="40"/>
     </row>
     <row r="162" spans="11:11" s="21" customFormat="1">
-      <c r="K162" s="48"/>
+      <c r="K162" s="40"/>
     </row>
     <row r="163" spans="11:11" s="21" customFormat="1">
-      <c r="K163" s="48"/>
+      <c r="K163" s="40"/>
     </row>
     <row r="164" spans="11:11" s="21" customFormat="1">
-      <c r="K164" s="48"/>
+      <c r="K164" s="40"/>
     </row>
     <row r="165" spans="11:11" s="21" customFormat="1">
-      <c r="K165" s="48"/>
+      <c r="K165" s="40"/>
     </row>
     <row r="166" spans="11:11" s="21" customFormat="1">
-      <c r="K166" s="48"/>
+      <c r="K166" s="40"/>
     </row>
     <row r="167" spans="11:11" s="21" customFormat="1">
-      <c r="K167" s="48"/>
+      <c r="K167" s="40"/>
     </row>
     <row r="168" spans="11:11" s="21" customFormat="1">
-      <c r="K168" s="48"/>
+      <c r="K168" s="40"/>
     </row>
     <row r="169" spans="11:11" s="21" customFormat="1">
-      <c r="K169" s="48"/>
+      <c r="K169" s="40"/>
     </row>
     <row r="170" spans="11:11" s="21" customFormat="1">
-      <c r="K170" s="48"/>
+      <c r="K170" s="40"/>
     </row>
     <row r="171" spans="11:11" s="21" customFormat="1">
-      <c r="K171" s="48"/>
+      <c r="K171" s="40"/>
     </row>
     <row r="172" spans="11:11" s="21" customFormat="1">
-      <c r="K172" s="48"/>
+      <c r="K172" s="40"/>
     </row>
     <row r="173" spans="11:11" s="21" customFormat="1">
-      <c r="K173" s="48"/>
+      <c r="K173" s="40"/>
     </row>
     <row r="174" spans="11:11" s="21" customFormat="1">
-      <c r="K174" s="48"/>
+      <c r="K174" s="40"/>
     </row>
     <row r="175" spans="11:11" s="21" customFormat="1">
-      <c r="K175" s="48"/>
+      <c r="K175" s="40"/>
     </row>
     <row r="176" spans="11:11" s="21" customFormat="1">
-      <c r="K176" s="48"/>
+      <c r="K176" s="40"/>
     </row>
     <row r="177" spans="11:11" s="21" customFormat="1">
-      <c r="K177" s="48"/>
+      <c r="K177" s="40"/>
     </row>
     <row r="178" spans="11:11" s="21" customFormat="1">
-      <c r="K178" s="48"/>
+      <c r="K178" s="40"/>
     </row>
     <row r="179" spans="11:11" s="21" customFormat="1">
-      <c r="K179" s="48"/>
+      <c r="K179" s="40"/>
     </row>
     <row r="180" spans="11:11" s="21" customFormat="1">
-      <c r="K180" s="48"/>
+      <c r="K180" s="40"/>
     </row>
     <row r="181" spans="11:11" s="21" customFormat="1">
-      <c r="K181" s="48"/>
+      <c r="K181" s="40"/>
     </row>
     <row r="182" spans="11:11" s="21" customFormat="1">
-      <c r="K182" s="48"/>
+      <c r="K182" s="40"/>
     </row>
     <row r="183" spans="11:11" s="21" customFormat="1">
-      <c r="K183" s="48"/>
+      <c r="K183" s="40"/>
     </row>
     <row r="184" spans="11:11" s="21" customFormat="1">
-      <c r="K184" s="48"/>
+      <c r="K184" s="40"/>
     </row>
     <row r="185" spans="11:11" s="21" customFormat="1">
-      <c r="K185" s="48"/>
+      <c r="K185" s="40"/>
     </row>
     <row r="186" spans="11:11" s="21" customFormat="1">
-      <c r="K186" s="48"/>
+      <c r="K186" s="40"/>
     </row>
     <row r="187" spans="11:11" s="21" customFormat="1">
-      <c r="K187" s="48"/>
+      <c r="K187" s="40"/>
     </row>
     <row r="188" spans="11:11" s="21" customFormat="1">
-      <c r="K188" s="48"/>
+      <c r="K188" s="40"/>
     </row>
     <row r="189" spans="11:11" s="21" customFormat="1">
-      <c r="K189" s="48"/>
+      <c r="K189" s="40"/>
     </row>
     <row r="190" spans="11:11" s="21" customFormat="1">
-      <c r="K190" s="48"/>
+      <c r="K190" s="40"/>
     </row>
     <row r="191" spans="11:11" s="21" customFormat="1">
-      <c r="K191" s="48"/>
+      <c r="K191" s="40"/>
     </row>
     <row r="192" spans="11:11" s="21" customFormat="1">
-      <c r="K192" s="48"/>
+      <c r="K192" s="40"/>
     </row>
     <row r="193" spans="11:11" s="21" customFormat="1">
-      <c r="K193" s="48"/>
+      <c r="K193" s="40"/>
     </row>
     <row r="194" spans="11:11" s="21" customFormat="1">
-      <c r="K194" s="48"/>
+      <c r="K194" s="40"/>
     </row>
     <row r="195" spans="11:11" s="21" customFormat="1">
-      <c r="K195" s="48"/>
+      <c r="K195" s="40"/>
     </row>
     <row r="196" spans="11:11" s="21" customFormat="1">
-      <c r="K196" s="48"/>
+      <c r="K196" s="40"/>
     </row>
     <row r="197" spans="11:11" s="21" customFormat="1">
-      <c r="K197" s="48"/>
+      <c r="K197" s="40"/>
     </row>
     <row r="198" spans="11:11" s="21" customFormat="1">
-      <c r="K198" s="48"/>
+      <c r="K198" s="40"/>
     </row>
     <row r="199" spans="11:11" s="21" customFormat="1">
-      <c r="K199" s="48"/>
+      <c r="K199" s="40"/>
     </row>
     <row r="200" spans="11:11" s="21" customFormat="1">
-      <c r="K200" s="48"/>
+      <c r="K200" s="40"/>
     </row>
     <row r="201" spans="11:11" s="21" customFormat="1">
-      <c r="K201" s="48"/>
+      <c r="K201" s="40"/>
     </row>
     <row r="202" spans="11:11" s="21" customFormat="1">
-      <c r="K202" s="48"/>
+      <c r="K202" s="40"/>
     </row>
     <row r="203" spans="11:11" s="21" customFormat="1">
-      <c r="K203" s="48"/>
+      <c r="K203" s="40"/>
     </row>
     <row r="204" spans="11:11" s="21" customFormat="1">
-      <c r="K204" s="48"/>
+      <c r="K204" s="40"/>
     </row>
     <row r="205" spans="11:11" s="21" customFormat="1">
-      <c r="K205" s="48"/>
+      <c r="K205" s="40"/>
     </row>
     <row r="206" spans="11:11" s="21" customFormat="1">
-      <c r="K206" s="48"/>
+      <c r="K206" s="40"/>
     </row>
     <row r="207" spans="11:11" s="21" customFormat="1">
-      <c r="K207" s="48"/>
+      <c r="K207" s="40"/>
     </row>
     <row r="208" spans="11:11" s="21" customFormat="1">
-      <c r="K208" s="48"/>
+      <c r="K208" s="40"/>
     </row>
     <row r="209" spans="11:11" s="21" customFormat="1">
-      <c r="K209" s="48"/>
+      <c r="K209" s="40"/>
     </row>
     <row r="210" spans="11:11" s="21" customFormat="1">
-      <c r="K210" s="48"/>
+      <c r="K210" s="40"/>
     </row>
     <row r="211" spans="11:11" s="21" customFormat="1">
-      <c r="K211" s="48"/>
+      <c r="K211" s="40"/>
     </row>
     <row r="212" spans="11:11" s="21" customFormat="1">
-      <c r="K212" s="48"/>
+      <c r="K212" s="40"/>
     </row>
     <row r="213" spans="11:11" s="21" customFormat="1">
-      <c r="K213" s="48"/>
+      <c r="K213" s="40"/>
     </row>
     <row r="214" spans="11:11" s="21" customFormat="1">
-      <c r="K214" s="48"/>
+      <c r="K214" s="40"/>
     </row>
     <row r="215" spans="11:11" s="21" customFormat="1">
-      <c r="K215" s="48"/>
+      <c r="K215" s="40"/>
     </row>
     <row r="216" spans="11:11" s="21" customFormat="1">
-      <c r="K216" s="48"/>
+      <c r="K216" s="40"/>
     </row>
     <row r="217" spans="11:11" s="21" customFormat="1">
-      <c r="K217" s="48"/>
+      <c r="K217" s="40"/>
     </row>
     <row r="218" spans="11:11" s="21" customFormat="1">
-      <c r="K218" s="48"/>
+      <c r="K218" s="40"/>
     </row>
     <row r="219" spans="11:11" s="21" customFormat="1">
-      <c r="K219" s="48"/>
+      <c r="K219" s="40"/>
     </row>
     <row r="220" spans="11:11" s="21" customFormat="1">
-      <c r="K220" s="48"/>
+      <c r="K220" s="40"/>
     </row>
     <row r="221" spans="11:11" s="21" customFormat="1">
-      <c r="K221" s="48"/>
+      <c r="K221" s="40"/>
     </row>
     <row r="222" spans="11:11" s="21" customFormat="1">
-      <c r="K222" s="48"/>
+      <c r="K222" s="40"/>
     </row>
     <row r="223" spans="11:11" s="21" customFormat="1">
-      <c r="K223" s="48"/>
+      <c r="K223" s="40"/>
     </row>
     <row r="224" spans="11:11" s="21" customFormat="1">
-      <c r="K224" s="48"/>
+      <c r="K224" s="40"/>
     </row>
     <row r="225" spans="11:11" s="21" customFormat="1">
-      <c r="K225" s="48"/>
+      <c r="K225" s="40"/>
     </row>
     <row r="226" spans="11:11" s="21" customFormat="1">
-      <c r="K226" s="48"/>
+      <c r="K226" s="40"/>
     </row>
     <row r="227" spans="11:11" s="21" customFormat="1">
-      <c r="K227" s="48"/>
+      <c r="K227" s="40"/>
     </row>
     <row r="228" spans="11:11" s="21" customFormat="1">
-      <c r="K228" s="48"/>
+      <c r="K228" s="40"/>
     </row>
     <row r="229" spans="11:11" s="21" customFormat="1">
-      <c r="K229" s="48"/>
+      <c r="K229" s="40"/>
     </row>
     <row r="230" spans="11:11" s="21" customFormat="1">
-      <c r="K230" s="48"/>
+      <c r="K230" s="40"/>
     </row>
     <row r="231" spans="11:11" s="21" customFormat="1">
-      <c r="K231" s="48"/>
+      <c r="K231" s="40"/>
     </row>
     <row r="232" spans="11:11" s="21" customFormat="1">
-      <c r="K232" s="48"/>
+      <c r="K232" s="40"/>
     </row>
     <row r="233" spans="11:11" s="21" customFormat="1">
-      <c r="K233" s="48"/>
+      <c r="K233" s="40"/>
     </row>
     <row r="234" spans="11:11" s="21" customFormat="1">
-      <c r="K234" s="48"/>
+      <c r="K234" s="40"/>
     </row>
     <row r="235" spans="11:11" s="21" customFormat="1">
-      <c r="K235" s="48"/>
+      <c r="K235" s="40"/>
     </row>
     <row r="236" spans="11:11" s="21" customFormat="1">
-      <c r="K236" s="48"/>
+      <c r="K236" s="40"/>
     </row>
     <row r="237" spans="11:11" s="21" customFormat="1">
-      <c r="K237" s="48"/>
+      <c r="K237" s="40"/>
     </row>
     <row r="238" spans="11:11" s="21" customFormat="1">
-      <c r="K238" s="48"/>
+      <c r="K238" s="40"/>
     </row>
     <row r="239" spans="11:11" s="21" customFormat="1">
-      <c r="K239" s="48"/>
+      <c r="K239" s="40"/>
     </row>
     <row r="240" spans="11:11" s="21" customFormat="1">
-      <c r="K240" s="48"/>
+      <c r="K240" s="40"/>
     </row>
     <row r="241" spans="11:11" s="21" customFormat="1">
-      <c r="K241" s="48"/>
+      <c r="K241" s="40"/>
     </row>
     <row r="242" spans="11:11" s="21" customFormat="1">
-      <c r="K242" s="48"/>
+      <c r="K242" s="40"/>
     </row>
     <row r="243" spans="11:11" s="21" customFormat="1">
-      <c r="K243" s="48"/>
+      <c r="K243" s="40"/>
     </row>
     <row r="244" spans="11:11" s="21" customFormat="1">
-      <c r="K244" s="48"/>
+      <c r="K244" s="40"/>
     </row>
     <row r="245" spans="11:11" s="21" customFormat="1">
-      <c r="K245" s="48"/>
+      <c r="K245" s="40"/>
     </row>
     <row r="246" spans="11:11" s="21" customFormat="1">
-      <c r="K246" s="48"/>
+      <c r="K246" s="40"/>
     </row>
     <row r="247" spans="11:11" s="21" customFormat="1">
-      <c r="K247" s="48"/>
+      <c r="K247" s="40"/>
     </row>
     <row r="248" spans="11:11" s="21" customFormat="1">
-      <c r="K248" s="48"/>
+      <c r="K248" s="40"/>
     </row>
     <row r="249" spans="11:11" s="21" customFormat="1">
-      <c r="K249" s="48"/>
+      <c r="K249" s="40"/>
     </row>
     <row r="250" spans="11:11" s="21" customFormat="1">
-      <c r="K250" s="48"/>
+      <c r="K250" s="40"/>
     </row>
     <row r="251" spans="11:11" s="21" customFormat="1">
-      <c r="K251" s="48"/>
+      <c r="K251" s="40"/>
     </row>
     <row r="252" spans="11:11" s="21" customFormat="1">
-      <c r="K252" s="48"/>
+      <c r="K252" s="40"/>
     </row>
     <row r="253" spans="11:11" s="21" customFormat="1">
-      <c r="K253" s="48"/>
+      <c r="K253" s="40"/>
     </row>
     <row r="254" spans="11:11" s="21" customFormat="1">
-      <c r="K254" s="48"/>
+      <c r="K254" s="40"/>
     </row>
     <row r="255" spans="11:11" s="21" customFormat="1">
-      <c r="K255" s="48"/>
+      <c r="K255" s="40"/>
     </row>
     <row r="256" spans="11:11" s="21" customFormat="1">
-      <c r="K256" s="48"/>
+      <c r="K256" s="40"/>
     </row>
     <row r="257" spans="11:11" s="21" customFormat="1">
-      <c r="K257" s="48"/>
+      <c r="K257" s="40"/>
     </row>
     <row r="258" spans="11:11" s="21" customFormat="1">
-      <c r="K258" s="48"/>
+      <c r="K258" s="40"/>
     </row>
     <row r="259" spans="11:11" s="21" customFormat="1">
-      <c r="K259" s="48"/>
+      <c r="K259" s="40"/>
     </row>
     <row r="260" spans="11:11" s="21" customFormat="1">
-      <c r="K260" s="48"/>
+      <c r="K260" s="40"/>
     </row>
     <row r="261" spans="11:11" s="21" customFormat="1">
-      <c r="K261" s="48"/>
+      <c r="K261" s="40"/>
     </row>
     <row r="262" spans="11:11" s="21" customFormat="1">
-      <c r="K262" s="48"/>
+      <c r="K262" s="40"/>
     </row>
     <row r="263" spans="11:11" s="21" customFormat="1">
-      <c r="K263" s="48"/>
+      <c r="K263" s="40"/>
     </row>
     <row r="264" spans="11:11" s="21" customFormat="1">
-      <c r="K264" s="48"/>
+      <c r="K264" s="40"/>
     </row>
     <row r="265" spans="11:11" s="21" customFormat="1">
-      <c r="K265" s="48"/>
+      <c r="K265" s="40"/>
     </row>
     <row r="266" spans="11:11" s="21" customFormat="1">
-      <c r="K266" s="48"/>
+      <c r="K266" s="40"/>
     </row>
     <row r="267" spans="11:11" s="21" customFormat="1">
-      <c r="K267" s="48"/>
+      <c r="K267" s="40"/>
     </row>
     <row r="268" spans="11:11" s="21" customFormat="1">
-      <c r="K268" s="48"/>
+      <c r="K268" s="40"/>
     </row>
     <row r="269" spans="11:11" s="21" customFormat="1">
-      <c r="K269" s="48"/>
+      <c r="K269" s="40"/>
     </row>
     <row r="270" spans="11:11" s="21" customFormat="1">
-      <c r="K270" s="48"/>
+      <c r="K270" s="40"/>
     </row>
     <row r="271" spans="11:11" s="21" customFormat="1">
-      <c r="K271" s="48"/>
+      <c r="K271" s="40"/>
     </row>
     <row r="272" spans="11:11" s="21" customFormat="1">
-      <c r="K272" s="48"/>
+      <c r="K272" s="40"/>
     </row>
     <row r="273" spans="11:11" s="21" customFormat="1">
-      <c r="K273" s="48"/>
+      <c r="K273" s="40"/>
     </row>
     <row r="274" spans="11:11" s="21" customFormat="1">
-      <c r="K274" s="48"/>
+      <c r="K274" s="40"/>
     </row>
     <row r="275" spans="11:11" s="21" customFormat="1">
-      <c r="K275" s="48"/>
+      <c r="K275" s="40"/>
     </row>
     <row r="276" spans="11:11" s="21" customFormat="1">
-      <c r="K276" s="48"/>
+      <c r="K276" s="40"/>
     </row>
     <row r="277" spans="11:11" s="21" customFormat="1">
-      <c r="K277" s="48"/>
+      <c r="K277" s="40"/>
     </row>
     <row r="278" spans="11:11" s="21" customFormat="1">
-      <c r="K278" s="48"/>
+      <c r="K278" s="40"/>
     </row>
     <row r="279" spans="11:11" s="21" customFormat="1">
-      <c r="K279" s="48"/>
+      <c r="K279" s="40"/>
     </row>
     <row r="280" spans="11:11" s="21" customFormat="1">
-      <c r="K280" s="48"/>
+      <c r="K280" s="40"/>
     </row>
     <row r="281" spans="11:11" s="21" customFormat="1">
-      <c r="K281" s="48"/>
+      <c r="K281" s="40"/>
     </row>
     <row r="282" spans="11:11" s="21" customFormat="1">
-      <c r="K282" s="48"/>
+      <c r="K282" s="40"/>
     </row>
     <row r="283" spans="11:11" s="21" customFormat="1">
-      <c r="K283" s="48"/>
+      <c r="K283" s="40"/>
     </row>
     <row r="284" spans="11:11" s="21" customFormat="1">
-      <c r="K284" s="48"/>
+      <c r="K284" s="40"/>
     </row>
     <row r="285" spans="11:11" s="21" customFormat="1">
-      <c r="K285" s="48"/>
+      <c r="K285" s="40"/>
     </row>
     <row r="286" spans="11:11" s="21" customFormat="1">
-      <c r="K286" s="48"/>
+      <c r="K286" s="40"/>
     </row>
     <row r="287" spans="11:11" s="21" customFormat="1">
-      <c r="K287" s="48"/>
+      <c r="K287" s="40"/>
     </row>
     <row r="288" spans="11:11" s="21" customFormat="1">
-      <c r="K288" s="48"/>
+      <c r="K288" s="40"/>
     </row>
     <row r="289" spans="11:11" s="21" customFormat="1">
-      <c r="K289" s="48"/>
+      <c r="K289" s="40"/>
     </row>
     <row r="290" spans="11:11" s="21" customFormat="1">
-      <c r="K290" s="48"/>
+      <c r="K290" s="40"/>
     </row>
     <row r="291" spans="11:11" s="21" customFormat="1">
-      <c r="K291" s="48"/>
+      <c r="K291" s="40"/>
     </row>
     <row r="292" spans="11:11" s="21" customFormat="1">
-      <c r="K292" s="48"/>
+      <c r="K292" s="40"/>
     </row>
     <row r="293" spans="11:11" s="21" customFormat="1">
-      <c r="K293" s="48"/>
+      <c r="K293" s="40"/>
     </row>
     <row r="294" spans="11:11" s="21" customFormat="1">
-      <c r="K294" s="48"/>
+      <c r="K294" s="40"/>
     </row>
     <row r="295" spans="11:11" s="21" customFormat="1">
-      <c r="K295" s="48"/>
+      <c r="K295" s="40"/>
     </row>
     <row r="296" spans="11:11" s="21" customFormat="1">
-      <c r="K296" s="48"/>
+      <c r="K296" s="40"/>
     </row>
     <row r="297" spans="11:11" s="21" customFormat="1">
-      <c r="K297" s="48"/>
+      <c r="K297" s="40"/>
     </row>
     <row r="298" spans="11:11" s="21" customFormat="1">
-      <c r="K298" s="48"/>
+      <c r="K298" s="40"/>
     </row>
     <row r="299" spans="11:11" s="21" customFormat="1">
-      <c r="K299" s="48"/>
+      <c r="K299" s="40"/>
     </row>
     <row r="300" spans="11:11" s="21" customFormat="1">
-      <c r="K300" s="48"/>
+      <c r="K300" s="40"/>
     </row>
     <row r="301" spans="11:11" s="21" customFormat="1">
-      <c r="K301" s="48"/>
+      <c r="K301" s="40"/>
     </row>
     <row r="302" spans="11:11" s="21" customFormat="1">
-      <c r="K302" s="48"/>
+      <c r="K302" s="40"/>
     </row>
     <row r="303" spans="11:11" s="21" customFormat="1">
-      <c r="K303" s="48"/>
+      <c r="K303" s="40"/>
     </row>
     <row r="304" spans="11:11" s="21" customFormat="1">
-      <c r="K304" s="48"/>
+      <c r="K304" s="40"/>
     </row>
     <row r="305" spans="11:11" s="21" customFormat="1">
-      <c r="K305" s="48"/>
+      <c r="K305" s="40"/>
     </row>
     <row r="306" spans="11:11" s="21" customFormat="1">
-      <c r="K306" s="48"/>
+      <c r="K306" s="40"/>
     </row>
     <row r="307" spans="11:11" s="21" customFormat="1">
-      <c r="K307" s="48"/>
+      <c r="K307" s="40"/>
     </row>
     <row r="308" spans="11:11" s="21" customFormat="1">
-      <c r="K308" s="48"/>
+      <c r="K308" s="40"/>
     </row>
     <row r="309" spans="11:11" s="21" customFormat="1">
-      <c r="K309" s="48"/>
+      <c r="K309" s="40"/>
     </row>
     <row r="310" spans="11:11" s="21" customFormat="1">
-      <c r="K310" s="48"/>
+      <c r="K310" s="40"/>
     </row>
     <row r="311" spans="11:11" s="21" customFormat="1">
-      <c r="K311" s="48"/>
+      <c r="K311" s="40"/>
     </row>
     <row r="312" spans="11:11" s="21" customFormat="1">
-      <c r="K312" s="48"/>
+      <c r="K312" s="40"/>
     </row>
     <row r="313" spans="11:11" s="21" customFormat="1">
-      <c r="K313" s="48"/>
+      <c r="K313" s="40"/>
     </row>
     <row r="314" spans="11:11" s="21" customFormat="1">
-      <c r="K314" s="48"/>
+      <c r="K314" s="40"/>
     </row>
     <row r="315" spans="11:11" s="21" customFormat="1">
-      <c r="K315" s="48"/>
+      <c r="K315" s="40"/>
     </row>
     <row r="316" spans="11:11" s="21" customFormat="1">
-      <c r="K316" s="48"/>
+      <c r="K316" s="40"/>
     </row>
     <row r="317" spans="11:11" s="21" customFormat="1">
-      <c r="K317" s="48"/>
+      <c r="K317" s="40"/>
     </row>
     <row r="318" spans="11:11" s="21" customFormat="1">
-      <c r="K318" s="48"/>
+      <c r="K318" s="40"/>
     </row>
     <row r="319" spans="11:11" s="21" customFormat="1">
-      <c r="K319" s="48"/>
+      <c r="K319" s="40"/>
     </row>
     <row r="320" spans="11:11" s="21" customFormat="1">
-      <c r="K320" s="48"/>
+      <c r="K320" s="40"/>
     </row>
     <row r="321" spans="11:11" s="21" customFormat="1">
-      <c r="K321" s="48"/>
+      <c r="K321" s="40"/>
     </row>
     <row r="322" spans="11:11" s="21" customFormat="1">
-      <c r="K322" s="48"/>
+      <c r="K322" s="40"/>
     </row>
     <row r="323" spans="11:11" s="21" customFormat="1">
-      <c r="K323" s="48"/>
+      <c r="K323" s="40"/>
     </row>
     <row r="324" spans="11:11" s="21" customFormat="1">
-      <c r="K324" s="48"/>
+      <c r="K324" s="40"/>
     </row>
     <row r="325" spans="11:11" s="21" customFormat="1">
-      <c r="K325" s="48"/>
+      <c r="K325" s="40"/>
     </row>
     <row r="326" spans="11:11" s="21" customFormat="1">
-      <c r="K326" s="48"/>
+      <c r="K326" s="40"/>
     </row>
     <row r="327" spans="11:11" s="21" customFormat="1">
-      <c r="K327" s="48"/>
+      <c r="K327" s="40"/>
     </row>
     <row r="328" spans="11:11" s="21" customFormat="1">
-      <c r="K328" s="48"/>
+      <c r="K328" s="40"/>
     </row>
     <row r="329" spans="11:11" s="21" customFormat="1">
-      <c r="K329" s="48"/>
+      <c r="K329" s="40"/>
     </row>
     <row r="330" spans="11:11" s="21" customFormat="1">
-      <c r="K330" s="48"/>
+      <c r="K330" s="40"/>
     </row>
     <row r="331" spans="11:11" s="21" customFormat="1">
-      <c r="K331" s="48"/>
+      <c r="K331" s="40"/>
     </row>
     <row r="332" spans="11:11" s="21" customFormat="1">
-      <c r="K332" s="48"/>
+      <c r="K332" s="40"/>
     </row>
     <row r="333" spans="11:11" s="21" customFormat="1">
-      <c r="K333" s="48"/>
+      <c r="K333" s="40"/>
     </row>
     <row r="334" spans="11:11" s="21" customFormat="1">
-      <c r="K334" s="48"/>
+      <c r="K334" s="40"/>
     </row>
     <row r="335" spans="11:11" s="21" customFormat="1">
-      <c r="K335" s="48"/>
+      <c r="K335" s="40"/>
     </row>
     <row r="336" spans="11:11" s="21" customFormat="1">
-      <c r="K336" s="48"/>
+      <c r="K336" s="40"/>
     </row>
     <row r="337" spans="11:11" s="21" customFormat="1">
-      <c r="K337" s="48"/>
+      <c r="K337" s="40"/>
     </row>
     <row r="338" spans="11:11" s="21" customFormat="1">
-      <c r="K338" s="48"/>
+      <c r="K338" s="40"/>
     </row>
     <row r="339" spans="11:11" s="21" customFormat="1">
-      <c r="K339" s="48"/>
+      <c r="K339" s="40"/>
     </row>
     <row r="340" spans="11:11" s="21" customFormat="1">
-      <c r="K340" s="48"/>
+      <c r="K340" s="40"/>
     </row>
     <row r="341" spans="11:11" s="21" customFormat="1">
-      <c r="K341" s="48"/>
+      <c r="K341" s="40"/>
     </row>
     <row r="342" spans="11:11" s="21" customFormat="1">
-      <c r="K342" s="48"/>
+      <c r="K342" s="40"/>
     </row>
     <row r="343" spans="11:11" s="21" customFormat="1">
-      <c r="K343" s="48"/>
+      <c r="K343" s="40"/>
     </row>
     <row r="344" spans="11:11" s="21" customFormat="1">
-      <c r="K344" s="48"/>
+      <c r="K344" s="40"/>
     </row>
     <row r="345" spans="11:11" s="21" customFormat="1">
-      <c r="K345" s="48"/>
+      <c r="K345" s="40"/>
     </row>
     <row r="346" spans="11:11" s="21" customFormat="1">
-      <c r="K346" s="48"/>
+      <c r="K346" s="40"/>
     </row>
     <row r="347" spans="11:11" s="21" customFormat="1">
-      <c r="K347" s="48"/>
+      <c r="K347" s="40"/>
     </row>
     <row r="348" spans="11:11" s="21" customFormat="1">
-      <c r="K348" s="48"/>
+      <c r="K348" s="40"/>
     </row>
     <row r="349" spans="11:11" s="21" customFormat="1">
-      <c r="K349" s="48"/>
+      <c r="K349" s="40"/>
     </row>
     <row r="350" spans="11:11" s="21" customFormat="1">
-      <c r="K350" s="48"/>
+      <c r="K350" s="40"/>
     </row>
     <row r="351" spans="11:11" s="21" customFormat="1">
-      <c r="K351" s="48"/>
+      <c r="K351" s="40"/>
     </row>
     <row r="352" spans="11:11" s="21" customFormat="1">
-      <c r="K352" s="48"/>
+      <c r="K352" s="40"/>
     </row>
     <row r="353" spans="11:11" s="21" customFormat="1">
-      <c r="K353" s="48"/>
+      <c r="K353" s="40"/>
     </row>
     <row r="354" spans="11:11" s="21" customFormat="1">
-      <c r="K354" s="48"/>
+      <c r="K354" s="40"/>
     </row>
     <row r="355" spans="11:11" s="21" customFormat="1">
-      <c r="K355" s="48"/>
+      <c r="K355" s="40"/>
     </row>
     <row r="356" spans="11:11" s="21" customFormat="1">
-      <c r="K356" s="48"/>
+      <c r="K356" s="40"/>
     </row>
     <row r="357" spans="11:11" s="21" customFormat="1">
-      <c r="K357" s="48"/>
+      <c r="K357" s="40"/>
     </row>
     <row r="358" spans="11:11" s="21" customFormat="1">
-      <c r="K358" s="48"/>
+      <c r="K358" s="40"/>
     </row>
     <row r="359" spans="11:11" s="21" customFormat="1">
-      <c r="K359" s="48"/>
+      <c r="K359" s="40"/>
     </row>
     <row r="360" spans="11:11" s="21" customFormat="1">
-      <c r="K360" s="48"/>
+      <c r="K360" s="40"/>
     </row>
     <row r="361" spans="11:11" s="21" customFormat="1">
-      <c r="K361" s="48"/>
+      <c r="K361" s="40"/>
     </row>
     <row r="362" spans="11:11" s="21" customFormat="1">
-      <c r="K362" s="48"/>
+      <c r="K362" s="40"/>
     </row>
     <row r="363" spans="11:11" s="21" customFormat="1">
-      <c r="K363" s="48"/>
+      <c r="K363" s="40"/>
     </row>
     <row r="364" spans="11:11" s="21" customFormat="1">
-      <c r="K364" s="48"/>
+      <c r="K364" s="40"/>
     </row>
     <row r="365" spans="11:11" s="21" customFormat="1">
-      <c r="K365" s="48"/>
+      <c r="K365" s="40"/>
     </row>
     <row r="366" spans="11:11" s="21" customFormat="1">
-      <c r="K366" s="48"/>
+      <c r="K366" s="40"/>
     </row>
     <row r="367" spans="11:11" s="21" customFormat="1">
-      <c r="K367" s="48"/>
+      <c r="K367" s="40"/>
     </row>
     <row r="368" spans="11:11" s="21" customFormat="1">
-      <c r="K368" s="48"/>
-    </row>
-    <row r="369" spans="11:11" s="21" customFormat="1">
-      <c r="K369" s="48"/>
-    </row>
-    <row r="370" spans="11:11" s="21" customFormat="1">
-      <c r="K370" s="48"/>
-    </row>
-    <row r="371" spans="11:11" s="21" customFormat="1">
-      <c r="K371" s="48"/>
-    </row>
-    <row r="372" spans="11:11" s="21" customFormat="1">
-      <c r="K372" s="48"/>
-    </row>
-    <row r="373" spans="11:11" s="21" customFormat="1">
-      <c r="K373" s="48"/>
-    </row>
-    <row r="374" spans="11:11" s="21" customFormat="1">
-      <c r="K374" s="48"/>
-    </row>
-    <row r="375" spans="11:11" s="21" customFormat="1">
-      <c r="K375" s="48"/>
-    </row>
-    <row r="376" spans="11:11" s="21" customFormat="1">
-      <c r="K376" s="48"/>
-    </row>
-    <row r="377" spans="11:11" s="21" customFormat="1">
-      <c r="K377" s="48"/>
-    </row>
-    <row r="378" spans="11:11" s="21" customFormat="1">
-      <c r="K378" s="48"/>
-    </row>
-    <row r="379" spans="11:11" s="21" customFormat="1">
-      <c r="K379" s="48"/>
-    </row>
-    <row r="380" spans="11:11" s="21" customFormat="1">
-      <c r="K380" s="48"/>
-    </row>
-    <row r="381" spans="11:11" s="21" customFormat="1">
-      <c r="K381" s="48"/>
-    </row>
-    <row r="382" spans="11:11" s="21" customFormat="1">
-      <c r="K382" s="48"/>
-    </row>
-    <row r="383" spans="11:11" s="21" customFormat="1">
-      <c r="K383" s="48"/>
-    </row>
-    <row r="384" spans="11:11" s="21" customFormat="1">
-      <c r="K384" s="48"/>
+      <c r="K368" s="40"/>
+    </row>
+    <row r="369" spans="1:11" s="21" customFormat="1">
+      <c r="K369" s="40"/>
+    </row>
+    <row r="370" spans="1:11" s="21" customFormat="1">
+      <c r="K370" s="40"/>
+    </row>
+    <row r="371" spans="1:11" s="21" customFormat="1">
+      <c r="K371" s="40"/>
+    </row>
+    <row r="372" spans="1:11" s="21" customFormat="1">
+      <c r="K372" s="40"/>
+    </row>
+    <row r="373" spans="1:11" s="21" customFormat="1">
+      <c r="K373" s="40"/>
+    </row>
+    <row r="374" spans="1:11" s="21" customFormat="1">
+      <c r="K374" s="40"/>
+    </row>
+    <row r="375" spans="1:11" s="21" customFormat="1">
+      <c r="K375" s="40"/>
+    </row>
+    <row r="376" spans="1:11" s="21" customFormat="1">
+      <c r="K376" s="40"/>
+    </row>
+    <row r="377" spans="1:11" s="21" customFormat="1">
+      <c r="K377" s="40"/>
+    </row>
+    <row r="378" spans="1:11" s="21" customFormat="1">
+      <c r="K378" s="40"/>
+    </row>
+    <row r="379" spans="1:11" s="21" customFormat="1">
+      <c r="K379" s="40"/>
+    </row>
+    <row r="380" spans="1:11" s="21" customFormat="1">
+      <c r="K380" s="40"/>
+    </row>
+    <row r="381" spans="1:11" s="21" customFormat="1">
+      <c r="K381" s="40"/>
+    </row>
+    <row r="382" spans="1:11" s="21" customFormat="1">
+      <c r="K382" s="40"/>
+    </row>
+    <row r="383" spans="1:11" s="21" customFormat="1">
+      <c r="K383" s="40"/>
+    </row>
+    <row r="384" spans="1:11" s="21" customFormat="1">
+      <c r="A384" s="1"/>
+      <c r="K384" s="40"/>
     </row>
     <row r="385" spans="1:11" s="21" customFormat="1">
       <c r="A385" s="1"/>
-      <c r="K385" s="48"/>
+      <c r="K385" s="40"/>
     </row>
     <row r="386" spans="1:11" s="21" customFormat="1">
       <c r="A386" s="1"/>
-      <c r="K386" s="48"/>
+      <c r="K386" s="40"/>
     </row>
     <row r="387" spans="1:11" s="21" customFormat="1">
       <c r="A387" s="1"/>
-      <c r="K387" s="48"/>
-    </row>
-    <row r="388" spans="1:11" s="21" customFormat="1">
-      <c r="A388" s="1"/>
-      <c r="K388" s="48"/>
+      <c r="K387" s="40"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:J58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:J14 I16:J57 H15:I15">
       <formula1>"passed,failed,skipped,blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3143,6 +3237,7 @@
     <hyperlink ref="A11" location="RTM!B11" tooltip="Login Scenario" display="SC_OH_5"/>
     <hyperlink ref="A12" location="RTM!B11" tooltip="Login Scenario" display="SC_OH_5"/>
     <hyperlink ref="A13" location="RTM!B11" tooltip="Login Scenario" display="SC_OH_5"/>
+    <hyperlink ref="A14" location="RTM!B12" display="SC_OH_6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3165,14 +3260,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" thickTop="1" thickBot="1">
       <c r="A2" s="22"/>
@@ -3286,6 +3381,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -3455,18 +3561,11 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3475,11 +3574,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3498,35 +3610,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -15,10 +15,11 @@
     <sheet name="Project Profile" sheetId="6" r:id="rId1"/>
     <sheet name="RTM" sheetId="5" r:id="rId2"/>
     <sheet name="TestCases" sheetId="7" r:id="rId3"/>
-    <sheet name="Revision History" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
+    <sheet name="Revision History" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="BA">#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="141">
   <si>
     <t>Project ID</t>
   </si>
@@ -482,6 +483,27 @@
   <si>
     <t>Forgot Your Password validation</t>
   </si>
+  <si>
+    <t xml:space="preserve">Book a flight </t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Search (enabled or disabled)</t>
+  </si>
+  <si>
+    <t>Any one for testing</t>
+  </si>
 </sst>
 </file>
 
@@ -492,7 +514,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -583,8 +605,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +809,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -902,6 +935,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,7 +960,14 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -968,7 +1009,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="17.25" customHeight="1"/>
@@ -1399,11 +1440,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="22.5">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="5" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C5" s="6"/>
@@ -1412,28 +1453,28 @@
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="2:4" ht="17.25" customHeight="1">
       <c r="B10" s="9"/>
@@ -1726,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2063,7 +2104,7 @@
       <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:13" s="21" customFormat="1" ht="178.5">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="43" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3246,6 +3287,137 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:F17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="18.46484375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="52.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:6" ht="27.4">
+      <c r="C6" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" spans="3:6" ht="27.4">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="3:6" ht="27.4">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+    </row>
+    <row r="9" spans="3:6" ht="27.4">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" s="54" customFormat="1" ht="27.4">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" s="56" customFormat="1" ht="27.4">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+    </row>
+    <row r="12" spans="3:6" s="56" customFormat="1" ht="27.4">
+      <c r="C12" s="55"/>
+      <c r="D12" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="3:6" ht="27.4">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="27.4">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="27.4">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="27.4">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+    </row>
+    <row r="17" spans="3:6" ht="27.4">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3260,14 +3432,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" thickTop="1" thickBot="1">
       <c r="A2" s="22"/>
@@ -3381,17 +3553,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -3561,11 +3722,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3574,24 +3742,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3610,18 +3765,35 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -936,37 +936,37 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1009,7 +1009,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,11 +1440,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="22.5">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C5" s="6"/>
@@ -1453,28 +1453,28 @@
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="2:4" ht="17.25" customHeight="1">
       <c r="B10" s="9"/>
@@ -1767,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -3302,110 +3302,110 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:6" ht="27.4">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="3:6" ht="27.4">
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="3:6" ht="27.4">
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="3:6" ht="27.4">
-      <c r="C9" s="52"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="3:6" s="54" customFormat="1" ht="27.4">
-      <c r="C10" s="53"/>
-      <c r="D10" s="53" t="s">
+    <row r="10" spans="3:6" s="46" customFormat="1" ht="27.4">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="45" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="3:6" s="56" customFormat="1" ht="27.4">
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-    </row>
-    <row r="12" spans="3:6" s="56" customFormat="1" ht="27.4">
-      <c r="C12" s="55"/>
-      <c r="D12" s="57" t="s">
+    <row r="11" spans="3:6" s="48" customFormat="1" ht="27.4">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="3:6" s="48" customFormat="1" ht="27.4">
+      <c r="C12" s="47"/>
+      <c r="D12" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="3:6" ht="27.4">
-      <c r="C13" s="52"/>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="44" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="27.4">
-      <c r="C14" s="52"/>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="44" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="27.4">
-      <c r="C15" s="52"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="44" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="27.4">
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="3:6" ht="27.4">
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3432,14 +3432,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" thickTop="1" thickBot="1">
       <c r="A2" s="22"/>
@@ -3553,6 +3553,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -3722,31 +3746,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3763,37 +3796,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="155">
   <si>
     <t>Project ID</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>OH_Req 10</t>
-  </si>
-  <si>
-    <t>OH_Req 11</t>
   </si>
   <si>
     <t>OH_Req 12</t>
@@ -503,6 +500,105 @@
   </si>
   <si>
     <t>Any one for testing</t>
+  </si>
+  <si>
+    <t>1. Title is "OrangeHRM" as expected
+2. Logo is displayed properly
+3. Textbox for entering username and password</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>3. Link not available for ""Forgot Your Password?""</t>
+  </si>
+  <si>
+    <t>OH_Req 6.3</t>
+  </si>
+  <si>
+    <t>Employee - Add</t>
+  </si>
+  <si>
+    <t>SC_OH_09</t>
+  </si>
+  <si>
+    <t>TC_OH_13</t>
+  </si>
+  <si>
+    <t>To verify UI component for add employee section</t>
+  </si>
+  <si>
+    <t>Data: 
+Add username: Admin
+password- admin123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the url
+2. Enter Admin username
+3. Enter password
+4. Click Login
+5. Mouse over on PIM
+6. Click on Add Employee
+</t>
+  </si>
+  <si>
+    <t>TC_OH_14</t>
+  </si>
+  <si>
+    <t>To verify UI component for add employee section after checking create login details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the url
+2. Enter Admin username
+3. Enter password
+4. Click Login
+5. Mouse over on PIM
+6. Click on Add Employee
+7. Check - Create Login Details
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Add Employee header should be displayed 
+2. Logo should be displayed
+3. Textbox for firstname, middle name, lastname, employee id
+4. Choose file option for Image upload should be provided 
+5. Checkbox for create login detail 
+6. Save button should be displayed 
+7. Label for firstname, lastname, middle name, emp photo, Employee id, create login detail should be displayed properly 
+8. For image upload the info should be displayed "Accepts jpg, .png, .gif up to 1MB. Recommended dimensions: 200px X 200px"
+ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Add Employee header should be displayed 
+2. Logo should be displayed
+3. Textbox for firstname, middle name, lastname, employee id
+4. Choose file option for Image upload should be provided 
+5. Checkbox for create login detail 
+6. Save button should be displayed 
+7. Label for firstname, lastname, middle name, emp photo, Employee id, create login detail should be displayed properly 
+8. For image upload the info should be displayed "Accepts jpg, .png, .gif up to 1MB. Recommended dimensions: 200px X 200px"
+9. Textbox for username, password, confirm password should be displayed
+10. Dropdown for status with option as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>enabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> and disabled should be available
+11. Label should be dispayed for username, password, confirm password, status.
+ </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1009,7 +1105,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1662,7 @@
   <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
@@ -1698,7 +1794,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="15"/>
     </row>
@@ -1714,17 +1810,19 @@
     </row>
     <row r="15" spans="1:4" ht="13.9">
       <c r="A15" s="34" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" ht="13.9">
       <c r="A16" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>66</v>
@@ -1734,7 +1832,7 @@
     </row>
     <row r="17" spans="1:4" ht="13.9">
       <c r="A17" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>67</v>
@@ -1744,7 +1842,7 @@
     </row>
     <row r="18" spans="1:4" ht="13.9">
       <c r="A18" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>68</v>
@@ -1767,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -1876,6 +1974,15 @@
       <c r="G3" s="37" t="s">
         <v>75</v>
       </c>
+      <c r="H3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="K3" s="40">
         <v>44607</v>
       </c>
@@ -2001,7 +2108,7 @@
         <v>97</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8" s="40"/>
     </row>
@@ -2111,27 +2218,66 @@
         <v>118</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>97</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K14" s="40"/>
     </row>
-    <row r="15" spans="1:13" s="21" customFormat="1">
-      <c r="E15" s="32"/>
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="153">
+      <c r="A15" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>153</v>
+      </c>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:13" s="21" customFormat="1">
-      <c r="A16" s="33"/>
-      <c r="F16" s="32"/>
+    <row r="16" spans="1:13" s="21" customFormat="1" ht="229.9">
+      <c r="A16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="21" customFormat="1">
@@ -3262,7 +3408,7 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:J14 I16:J57 H15:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:I57 H15:I15 I3:I14">
       <formula1>"passed,failed,skipped,blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3303,7 +3449,7 @@
   <sheetData>
     <row r="6" spans="3:6" ht="27.4">
       <c r="C6" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
@@ -3324,25 +3470,25 @@
     <row r="9" spans="3:6" ht="27.4">
       <c r="C9" s="44"/>
       <c r="D9" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>136</v>
-      </c>
       <c r="F9" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="3:6" s="46" customFormat="1" ht="27.4">
       <c r="C10" s="45"/>
       <c r="D10" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="3:6" s="48" customFormat="1" ht="27.4">
@@ -3354,7 +3500,7 @@
     <row r="12" spans="3:6" s="48" customFormat="1" ht="27.4">
       <c r="C12" s="47"/>
       <c r="D12" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
@@ -3362,37 +3508,37 @@
     <row r="13" spans="3:6" ht="27.4">
       <c r="C13" s="44"/>
       <c r="D13" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>137</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="27.4">
       <c r="C14" s="44"/>
       <c r="D14" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>138</v>
-      </c>
       <c r="F14" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="27.4">
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="27.4">
@@ -3553,30 +3699,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -3746,23 +3868,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3779,21 +3928,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Profile" sheetId="6" r:id="rId1"/>
@@ -516,9 +516,6 @@
     <t>OH_Req 6.3</t>
   </si>
   <si>
-    <t>Employee - Add</t>
-  </si>
-  <si>
     <t>SC_OH_09</t>
   </si>
   <si>
@@ -594,11 +591,15 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> and disabled should be available
 11. Label should be dispayed for username, password, confirm password, status.
  </t>
     </r>
+  </si>
+  <si>
+    <t>Add Employee</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1106,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1815,8 +1816,8 @@
       <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>144</v>
+      <c r="C15" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="D15" s="31"/>
     </row>
@@ -1865,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2234,49 +2235,49 @@
     </row>
     <row r="15" spans="1:13" s="21" customFormat="1" ht="153">
       <c r="A15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="C15" s="21" t="s">
         <v>146</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>147</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>129</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1" ht="229.9">
       <c r="A16" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>129</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="40"/>
     </row>
@@ -3699,6 +3700,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -3868,18 +3880,11 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3888,11 +3893,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3911,35 +3929,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5468" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Profile" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
   <si>
     <t>Project ID</t>
   </si>
@@ -555,11 +555,14 @@
 </t>
   </si>
   <si>
+    <t>Add Employee</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Add Employee header should be displayed 
 2. Logo should be displayed
 3. Textbox for firstname, middle name, lastname, employee id
 4. Choose file option for Image upload should be provided 
-5. Checkbox for create login detail 
+5. Checkbox for create login detail should be displayed and should be unchecked
 6. Save button should be displayed 
 7. Label for firstname, lastname, middle name, emp photo, Employee id, create login detail should be displayed properly 
 8. For image upload the info should be displayed "Accepts jpg, .png, .gif up to 1MB. Recommended dimensions: 200px X 200px"
@@ -571,7 +574,7 @@
 2. Logo should be displayed
 3. Textbox for firstname, middle name, lastname, employee id
 4. Choose file option for Image upload should be provided 
-5. Checkbox for create login detail 
+5. Checkbox for create login detail should be displayed and should be checked
 6. Save button should be displayed 
 7. Label for firstname, lastname, middle name, emp photo, Employee id, create login detail should be displayed properly 
 8. For image upload the info should be displayed "Accepts jpg, .png, .gif up to 1MB. Recommended dimensions: 200px X 200px"
@@ -593,13 +596,75 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> and disabled should be available
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>disabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be available and in that enabled should be selected.
 11. Label should be dispayed for username, password, confirm password, status.
  </t>
     </r>
   </si>
   <si>
-    <t>Add Employee</t>
+    <t>TC_OH_15</t>
+  </si>
+  <si>
+    <t>To verify the valid record of add employee without providing credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the url
+2. Enter Admin username
+3. Enter password
+4. Click Login
+5. Mouse over on PIM
+6. Click on Add Employee
+7. Enter firstname
+8. Enter middlename
+9. Enter lastname
+10. Enter Employee Id
+11. Upload the employee image
+12. Click on save
+</t>
+  </si>
+  <si>
+    <t>Data:
+1. Username: Admin
+2. Password: admin123
+3. Firstname: John
+4. MiddleName: J
+5. Last Name: Wick
+6.Employee Id: 4545
+7.Upload image: "C:\Users\JiDi\Pictures\Screenshots\Screenshot (1).png"</t>
+  </si>
+  <si>
+    <t>1. Admin should see message as "Employee record has been added to employee list"
+2. The added employee details should be present in the employee list.(PIM--&gt;EmployeeList)
+3. Database should contains the added employee details.</t>
+  </si>
+  <si>
+    <t>TC_OH_16</t>
+  </si>
+  <si>
+    <t>To verify the valid record of add employee by providing credentials with enabled mode</t>
+  </si>
+  <si>
+    <t>TC_OH_17</t>
+  </si>
+  <si>
+    <t>To verify the valid record of add employee by providing credentials with disabled mode</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1171,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1817,7 +1882,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D15" s="31"/>
     </row>
@@ -1866,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -1876,7 +1941,7 @@
     <col min="2" max="2" width="18.265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.73046875" style="1" customWidth="1"/>
     <col min="7" max="7" width="57.9296875" style="1" customWidth="1"/>
     <col min="8" max="10" width="26.1328125" style="1" customWidth="1"/>
@@ -2233,7 +2298,7 @@
       </c>
       <c r="K14" s="40"/>
     </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="153">
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="165.75">
       <c r="A15" s="21" t="s">
         <v>144</v>
       </c>
@@ -2253,11 +2318,11 @@
         <v>147</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" ht="229.9">
+    <row r="16" spans="1:13" s="21" customFormat="1" ht="242.65">
       <c r="A16" s="21" t="s">
         <v>144</v>
       </c>
@@ -2277,21 +2342,57 @@
         <v>147</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K16" s="40"/>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1">
-      <c r="A17" s="33"/>
-      <c r="F17" s="32"/>
+    <row r="17" spans="1:11" s="21" customFormat="1" ht="161.25" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>159</v>
+      </c>
       <c r="K17" s="40"/>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:11" s="21" customFormat="1" ht="38.25">
+      <c r="A18" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>161</v>
+      </c>
       <c r="F18" s="32"/>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" s="21" customFormat="1">
+    <row r="19" spans="1:11" s="21" customFormat="1" ht="38.25">
+      <c r="A19" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>163</v>
+      </c>
       <c r="F19" s="32"/>
       <c r="K19" s="40"/>
     </row>
@@ -3700,17 +3801,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -3880,37 +3983,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3929,18 +4029,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="174">
   <si>
     <t>Project ID</t>
   </si>
@@ -665,6 +665,92 @@
   </si>
   <si>
     <t>To verify the valid record of add employee by providing credentials with disabled mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the url
+2. Enter Admin username
+3. Enter password
+4. Click Login
+5. Mouse over on PIM
+6. Click on Add Employee
+7. Enter firstname
+8. Enter middlename
+9. Enter lastname
+10. Enter Employee Id
+11. Upload the employee image
+12. Check - create credential
+13. Enter Username
+14. Enter password
+15. Enter Confirm password
+16. Select status as Enabled
+17. Click on save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the url
+2. Enter Admin username
+3. Enter password
+4. Click Login
+5. Mouse over on PIM
+6. Click on Add Employee
+7. Enter firstname
+8. Enter middlename
+9. Enter lastname
+10. Enter Employee Id
+11. Upload the employee image
+12. Check - create credential
+13. Enter Username
+14. Enter password
+15. Enter Confirm password
+16. Select status as Disabled
+17. Click on save
+</t>
+  </si>
+  <si>
+    <t>Data:
+1. Username: Admin
+2. Password: admin123
+3. Firstname: John
+4. MiddleName: J
+5. Last Name: Wick
+6.Employee Id: 4545
+7.Upload image: "C:\Users\JiDi\Pictures\Screenshots\Screenshot (1).png"
+8. Username:Bala
+9. Password: bala123
+10. Confirm password: bala123</t>
+  </si>
+  <si>
+    <t>1. Admin should see message as "Employee record has been added to employee list"
+2. The added employee details should be present in the employee list.(PIM--&gt;EmployeeList) with status as "Disabled"
+3. Database should contains the added employee details.</t>
+  </si>
+  <si>
+    <t>TC_OH_18</t>
+  </si>
+  <si>
+    <t>TC_OH_19</t>
+  </si>
+  <si>
+    <t>Data:
+1. Username: Admin
+2. Password: admin123
+3. Firstname: John
+4. MiddleName: J
+5. Last Name: Wick
+6.Employee Id: 4545
+7.Upload image: "C:\Users\JiDi\Pictures\Screenshots\Screenshot (1).pdf"  
+8. Username:Bala
+9. Password: bala123
+10. Confirm password: bala123</t>
+  </si>
+  <si>
+    <t>To verify invalid file type with less than 1MB is not accepted</t>
+  </si>
+  <si>
+    <t>User should get "File type not supported. Accepts jpg, .png, .gif up to 1MB. Recommended dimensions: 200px X 200px"</t>
+  </si>
+  <si>
+    <t>To verify valid file type more than 1MB is not accepted</t>
   </si>
 </sst>
 </file>
@@ -1931,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2366,11 +2452,11 @@
         <v>158</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K17" s="40"/>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" ht="38.25">
+    <row r="18" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A18" s="21" t="s">
         <v>144</v>
       </c>
@@ -2380,10 +2466,21 @@
       <c r="C18" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="32"/>
+      <c r="D18" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>159</v>
+      </c>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" s="21" customFormat="1" ht="38.25">
+    <row r="19" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A19" s="21" t="s">
         <v>144</v>
       </c>
@@ -2393,15 +2490,66 @@
       <c r="C19" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="D19" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>167</v>
+      </c>
       <c r="K19" s="40"/>
     </row>
-    <row r="20" spans="1:11" s="21" customFormat="1">
-      <c r="F20" s="32"/>
+    <row r="20" spans="1:11" s="21" customFormat="1" ht="229.5">
+      <c r="A20" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="K20" s="40"/>
     </row>
-    <row r="21" spans="1:11" s="21" customFormat="1">
-      <c r="F21" s="32"/>
+    <row r="21" spans="1:11" s="21" customFormat="1" ht="229.5">
+      <c r="A21" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" s="21" customFormat="1">

--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -1057,7 +1057,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1215,6 +1215,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1257,7 +1260,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1676,7 @@
   <dimension ref="A4:V18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="17.25" customHeight="1"/>
@@ -2017,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:G21"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2469,7 +2472,7 @@
       <c r="D18" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="58" t="s">
         <v>164</v>
       </c>
       <c r="F18" s="42" t="s">
@@ -3949,19 +3952,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -4131,34 +4132,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4177,19 +4181,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mine\Company\NCS2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mine\Company\NCS2\NCS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1189,6 +1189,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,9 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,11 +1691,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="22.5">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
     </row>
     <row r="5" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C5" s="6"/>
@@ -1704,28 +1704,28 @@
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="2:4" ht="17.25" customHeight="1">
       <c r="B10" s="9"/>
@@ -2020,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2472,7 +2472,7 @@
       <c r="D18" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="49" t="s">
         <v>164</v>
       </c>
       <c r="F18" s="42" t="s">
@@ -3752,11 +3752,11 @@
     </row>
     <row r="12" spans="3:6" s="48" customFormat="1" ht="27.4">
       <c r="C12" s="47"/>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="3:6" ht="27.4">
       <c r="C13" s="44"/>
@@ -3831,14 +3831,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" thickTop="1" thickBot="1">
       <c r="A2" s="22"/>
@@ -3952,17 +3952,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -4132,37 +4134,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4181,18 +4180,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -316,9 +316,6 @@
 Data 2:
 Username: John
 Password: admin123</t>
-  </si>
-  <si>
-    <t>User should be displayed with error message as "Invalid Credential"</t>
   </si>
   <si>
     <t>TC_OH_4</t>
@@ -751,6 +748,9 @@
   </si>
   <si>
     <t>To verify valid file type more than 1MB is not accepted</t>
+  </si>
+  <si>
+    <t>User should be displayed with error message as "Invalid credentials"</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="15">
         <v>4</v>
@@ -1931,31 +1931,31 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>64</v>
@@ -1965,19 +1965,19 @@
     </row>
     <row r="15" spans="1:4" ht="13.9">
       <c r="A15" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" ht="13.9">
       <c r="A16" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>66</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="17" spans="1:4" ht="13.9">
       <c r="A17" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>67</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="18" spans="1:4" ht="13.9">
       <c r="A18" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>68</v>
@@ -2020,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2130,13 +2130,13 @@
         <v>75</v>
       </c>
       <c r="H3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="K3" s="40">
         <v>44607</v>
@@ -2188,7 +2188,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="K5" s="40">
         <v>44607</v>
@@ -2199,10 +2199,10 @@
         <v>48</v>
       </c>
       <c r="B6" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>86</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>87</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>73</v>
@@ -2211,10 +2211,10 @@
         <v>78</v>
       </c>
       <c r="F6" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="K6" s="40">
         <v>44607</v>
@@ -2225,10 +2225,10 @@
         <v>48</v>
       </c>
       <c r="B7" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>91</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>73</v>
@@ -2237,10 +2237,10 @@
         <v>78</v>
       </c>
       <c r="F7" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>93</v>
       </c>
       <c r="K7" s="40">
         <v>44607</v>
@@ -2251,19 +2251,19 @@
         <v>59</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>95</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>96</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K8" s="40"/>
     </row>
@@ -2272,7 +2272,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="32"/>
       <c r="K9" s="40"/>
@@ -2282,20 +2282,20 @@
         <v>61</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" s="40"/>
     </row>
@@ -2304,20 +2304,20 @@
         <v>61</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>106</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K11" s="40"/>
     </row>
@@ -2326,20 +2326,20 @@
         <v>61</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K12" s="40"/>
     </row>
@@ -2348,20 +2348,20 @@
         <v>61</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K13" s="40"/>
     </row>
@@ -2370,188 +2370,188 @@
         <v>62</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:13" s="21" customFormat="1" ht="165.75">
       <c r="A15" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="C15" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="G15" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1" ht="242.65">
       <c r="A16" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="F16" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="21" customFormat="1" ht="161.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="D17" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="37" t="s">
+      <c r="F17" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>158</v>
-      </c>
       <c r="G17" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A18" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>161</v>
-      </c>
       <c r="D18" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A19" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>163</v>
-      </c>
       <c r="D19" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="G19" s="37" t="s">
         <v>166</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>167</v>
       </c>
       <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A20" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>172</v>
       </c>
       <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A21" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>170</v>
-      </c>
       <c r="G21" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K21" s="40"/>
     </row>
@@ -3702,7 +3702,7 @@
   <sheetData>
     <row r="6" spans="3:6" ht="27.4">
       <c r="C6" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
@@ -3723,25 +3723,25 @@
     <row r="9" spans="3:6" ht="27.4">
       <c r="C9" s="44"/>
       <c r="D9" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>135</v>
-      </c>
       <c r="F9" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="3:6" s="46" customFormat="1" ht="27.4">
       <c r="C10" s="45"/>
       <c r="D10" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:6" s="48" customFormat="1" ht="27.4">
@@ -3753,7 +3753,7 @@
     <row r="12" spans="3:6" s="48" customFormat="1" ht="27.4">
       <c r="C12" s="47"/>
       <c r="D12" s="55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
@@ -3761,37 +3761,37 @@
     <row r="13" spans="3:6" ht="27.4">
       <c r="C13" s="44"/>
       <c r="D13" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="27.4">
       <c r="C14" s="44"/>
       <c r="D14" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>137</v>
-      </c>
       <c r="F14" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="27.4">
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="27.4">
@@ -3952,19 +3952,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -4134,34 +4132,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4180,19 +4181,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1817,7 @@
   <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
@@ -2020,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -3952,17 +3952,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -4132,37 +4134,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4181,18 +4180,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -308,14 +308,6 @@
   </si>
   <si>
     <t>To verify the invalid login as a enrolled employee</t>
-  </si>
-  <si>
-    <t>Data 1:
-Username: John
-Password: admin123
-Data 2:
-Username: John
-Password: admin123</t>
   </si>
   <si>
     <t>TC_OH_4</t>
@@ -647,11 +639,6 @@
 7.Upload image: "C:\Users\JiDi\Pictures\Screenshots\Screenshot (1).png"</t>
   </si>
   <si>
-    <t>1. Admin should see message as "Employee record has been added to employee list"
-2. The added employee details should be present in the employee list.(PIM--&gt;EmployeeList)
-3. Database should contains the added employee details.</t>
-  </si>
-  <si>
     <t>TC_OH_16</t>
   </si>
   <si>
@@ -751,6 +738,19 @@
   </si>
   <si>
     <t>User should be displayed with error message as "Invalid credentials"</t>
+  </si>
+  <si>
+    <t>Data 1:
+Username: John
+Password: admin123
+Data 2:
+Username: Peter
+Password: admin123</t>
+  </si>
+  <si>
+    <t>1. Admin should be redirected to peronal detail page of the added employee"
+2. The added employee details should be present in the employee list.(PIM--&gt;EmployeeList)
+3. Database should contains the added employee details.</t>
   </si>
 </sst>
 </file>
@@ -859,7 +859,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1063,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1218,6 +1224,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1260,7 +1269,7 @@
         <xdr:cNvPr id="2154" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1826,7 @@
   <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
@@ -1889,13 +1898,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -1903,13 +1912,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -1917,13 +1926,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="15">
         <v>4</v>
@@ -1931,31 +1940,31 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>64</v>
@@ -1965,19 +1974,19 @@
     </row>
     <row r="15" spans="1:4" ht="13.9">
       <c r="A15" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" ht="13.9">
       <c r="A16" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>66</v>
@@ -1987,7 +1996,7 @@
     </row>
     <row r="17" spans="1:4" ht="13.9">
       <c r="A17" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>67</v>
@@ -1997,7 +2006,7 @@
     </row>
     <row r="18" spans="1:4" ht="13.9">
       <c r="A18" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>68</v>
@@ -2020,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2130,13 +2139,13 @@
         <v>75</v>
       </c>
       <c r="H3" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>141</v>
       </c>
       <c r="K3" s="40">
         <v>44607</v>
@@ -2146,7 +2155,7 @@
       <c r="A4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="59" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -2172,7 +2181,7 @@
       <c r="A5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="59" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -2185,10 +2194,10 @@
         <v>78</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K5" s="40">
         <v>44607</v>
@@ -2198,11 +2207,11 @@
       <c r="A6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>86</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>73</v>
@@ -2211,10 +2220,10 @@
         <v>78</v>
       </c>
       <c r="F6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>88</v>
       </c>
       <c r="K6" s="40">
         <v>44607</v>
@@ -2224,11 +2233,11 @@
       <c r="A7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>90</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>73</v>
@@ -2237,10 +2246,10 @@
         <v>78</v>
       </c>
       <c r="F7" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="K7" s="40">
         <v>44607</v>
@@ -2251,19 +2260,19 @@
         <v>59</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>95</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" s="40"/>
     </row>
@@ -2272,7 +2281,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="32"/>
       <c r="K9" s="40"/>
@@ -2282,20 +2291,20 @@
         <v>61</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K10" s="40"/>
     </row>
@@ -2304,20 +2313,20 @@
         <v>61</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>104</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>105</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11" s="40"/>
     </row>
@@ -2326,20 +2335,20 @@
         <v>61</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" s="40"/>
     </row>
@@ -2348,20 +2357,20 @@
         <v>61</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K13" s="40"/>
     </row>
@@ -2370,188 +2379,188 @@
         <v>62</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:13" s="21" customFormat="1" ht="165.75">
       <c r="A15" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="C15" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>146</v>
-      </c>
       <c r="G15" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1" ht="242.65">
       <c r="A16" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>150</v>
-      </c>
       <c r="F16" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="21" customFormat="1" ht="161.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="D17" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="37" t="s">
+      <c r="F17" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>157</v>
-      </c>
       <c r="G17" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A18" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>165</v>
-      </c>
       <c r="G18" s="37" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A19" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C19" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="37" t="s">
+      <c r="F19" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="37" t="s">
         <v>164</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>166</v>
       </c>
       <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A20" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="42" t="s">
+      <c r="G20" s="21" t="s">
         <v>169</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="21" customFormat="1" ht="229.5">
       <c r="A21" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>169</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="K21" s="40"/>
     </row>
@@ -3702,7 +3711,7 @@
   <sheetData>
     <row r="6" spans="3:6" ht="27.4">
       <c r="C6" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
@@ -3723,25 +3732,25 @@
     <row r="9" spans="3:6" ht="27.4">
       <c r="C9" s="44"/>
       <c r="D9" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>134</v>
-      </c>
       <c r="F9" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="3:6" s="46" customFormat="1" ht="27.4">
       <c r="C10" s="45"/>
       <c r="D10" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="3:6" s="48" customFormat="1" ht="27.4">
@@ -3753,7 +3762,7 @@
     <row r="12" spans="3:6" s="48" customFormat="1" ht="27.4">
       <c r="C12" s="47"/>
       <c r="D12" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
@@ -3761,37 +3770,37 @@
     <row r="13" spans="3:6" ht="27.4">
       <c r="C13" s="44"/>
       <c r="D13" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>135</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="27.4">
       <c r="C14" s="44"/>
       <c r="D14" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>136</v>
-      </c>
       <c r="F14" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="27.4">
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="27.4">
@@ -3952,19 +3961,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -4134,34 +4141,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4180,19 +4190,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Test Template Document Corp.xlsx
+++ b/Test Template Document Corp.xlsx
@@ -1198,6 +1198,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1224,9 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1700,11 +1700,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="22.5">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C5" s="6"/>
@@ -1713,28 +1713,28 @@
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="53"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="53"/>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="2:4" ht="17.25" customHeight="1">
       <c r="B10" s="9"/>
@@ -2029,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2155,7 +2155,7 @@
       <c r="A4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="50" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -2181,7 +2181,7 @@
       <c r="A5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="50" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -2207,7 +2207,7 @@
       <c r="A6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="50" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -2233,7 +2233,7 @@
       <c r="A7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="50" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -3761,11 +3761,11 @@
     </row>
     <row r="12" spans="3:6" s="48" customFormat="1" ht="27.4">
       <c r="C12" s="47"/>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="3:6" ht="27.4">
       <c r="C13" s="44"/>
@@ -3840,14 +3840,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" thickTop="1" thickBot="1">
       <c r="A2" s="22"/>
